--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:54:02+00:00</t>
+    <t>2023-02-22T21:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15552" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15909" uniqueCount="726">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:31:39+00:00</t>
+    <t>2023-02-28T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,7 +566,7 @@
     <t>KMEHRMS.KMEHRMessage.header.sender.hcparty-individual.address</t>
   </si>
   <si>
-    <t>Home, work, … address(es) of the pateitn or healthcare party.</t>
+    <t>Home, work, ... address(es) of the patient or healthcare party.</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.header.sender.hcparty-individual.address.id</t>
@@ -1372,6 +1372,9 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.endMoment</t>
   </si>
   <si>
+    <t>the end date (and time) of the suspension</t>
+  </si>
+  <si>
     <t>The end moment</t>
   </si>
   <si>
@@ -1406,6 +1409,9 @@
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.medicinalproduct</t>
+  </si>
+  <si>
+    <t>Description of the medicinal product</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.medicinalproduct.id</t>
@@ -1445,6 +1451,9 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct</t>
   </si>
   <si>
+    <t>Description of the generic product</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.id</t>
   </si>
   <si>
@@ -1463,21 +1472,35 @@
     <t>Code of prescribed product (INN or CNK)</t>
   </si>
   <si>
+    <t>INN is not supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* S-Value= CD-INNCLUSTER is not supported
+* S-Value= CD-VMPGROUP 
+* code from MVP Groups </t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredName</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredCd</t>
+  </si>
+  <si>
+    <t>Code of delivered product (CNK)</t>
+  </si>
+  <si>
     <t>This has to be CNK, not a substance, because it is a delivered product</t>
   </si>
   <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredName</t>
-  </si>
-  <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.substanceproduct.deliveredCd</t>
-  </si>
-  <si>
-    <t>Code of delivered product (CNK)</t>
-  </si>
-  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription</t>
   </si>
   <si>
+    <t>Description of the compound product</t>
+  </si>
+  <si>
+    <t>Note that in XML this can directly be populated with the description (as it is in Wallonia)</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.id</t>
   </si>
   <si>
@@ -1487,22 +1510,22 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.modifierExtension</t>
   </si>
   <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.compoundprescription</t>
-  </si>
-  <si>
-    <t>description of the compound prescription</t>
-  </si>
-  <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.name</t>
-  </si>
-  <si>
-    <t>Name of the compound prescription</t>
-  </si>
-  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.magistraltext</t>
   </si>
   <si>
     <t>Recipe of the prescription</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.compound</t>
+  </si>
+  <si>
+    <t>NOT USED</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.content.compoundprescription.formularyReference</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.text</t>
@@ -1524,7 +1547,7 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-treatmentSuspension.item-medication.lnk</t>
   </si>
   <si>
-    <t>using a link to the transaction of the related medicine</t>
+    <t xml:space="preserve">using a link to the transaction (in the current MedicationSchema) of the related medicine, </t>
   </si>
   <si>
     <t>* TYPE = isplannedfor
@@ -1850,7 +1873,10 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.duration</t>
   </si>
   <si>
-    <t>The duration is mutual exclusive with endMoment</t>
+    <t>The duration of the treatment</t>
+  </si>
+  <si>
+    <t>The duration is mutually exclusive with endMoment</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content</t>
@@ -1925,13 +1951,13 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.modifierExtension</t>
   </si>
   <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.compoundprescription</t>
-  </si>
-  <si>
-    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.name</t>
-  </si>
-  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.magistraltext</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.compound</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.content.compoundprescription.formularyReference</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.text</t>
@@ -1998,6 +2024,9 @@
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology</t>
   </si>
   <si>
+    <t>The po</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.id</t>
   </si>
   <si>
@@ -2008,6 +2037,21 @@
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.text</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.low</t>
+  </si>
+  <si>
+    <t>Not used here, only in SumEHR</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.high</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.unit</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.posology.takes</t>
   </si>
   <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.regimen</t>
@@ -2192,13 +2236,37 @@
   * ...</t>
   </si>
   <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.instructionForOverDosing</t>
+  </si>
+  <si>
+    <t>NOT USED in MS</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.instructionForReimbursement</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.isSubstitutionAllowed</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.feedback</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.local</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.batch</t>
+  </si>
+  <si>
+    <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.deliveryDate</t>
+  </si>
+  <si>
     <t>KMEHRMS.KMEHRMessage.folder.MSETransaction-medication.item-medication.instructionforpatient</t>
   </si>
   <si>
     <t>Usage instructions for the patient.</t>
   </si>
   <si>
-    <t>a diminuer si possible</t>
+    <t>A diminuer si possible</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK477"/>
+  <dimension ref="A1:AK488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2520,8 +2588,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="132.78125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="132.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="130.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="130.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2551,7 +2619,7 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="132.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="130.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -29327,7 +29395,7 @@
         <v>438</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -29398,10 +29466,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29501,10 +29569,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -29606,10 +29674,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -29713,10 +29781,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -29794,7 +29862,7 @@
         <v>73</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>79</v>
@@ -29814,10 +29882,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -29895,7 +29963,7 @@
         <v>73</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>74</v>
@@ -29915,10 +29983,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -29944,10 +30012,10 @@
         <v>80</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -29998,7 +30066,7 @@
         <v>73</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>74</v>
@@ -30018,10 +30086,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30121,10 +30189,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30226,10 +30294,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30333,10 +30401,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -30362,10 +30430,10 @@
         <v>80</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
@@ -30416,7 +30484,7 @@
         <v>73</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>74</v>
@@ -30436,10 +30504,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -30539,10 +30607,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -30644,10 +30712,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -30751,10 +30819,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -30777,13 +30845,13 @@
         <v>73</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -30834,7 +30902,7 @@
         <v>73</v>
       </c>
       <c r="AF272" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG272" t="s" s="2">
         <v>74</v>
@@ -30854,10 +30922,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -30883,10 +30951,10 @@
         <v>118</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -30937,7 +31005,7 @@
         <v>73</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG273" t="s" s="2">
         <v>74</v>
@@ -30957,10 +31025,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -30983,13 +31051,13 @@
         <v>73</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
@@ -31040,7 +31108,7 @@
         <v>73</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>74</v>
@@ -31060,10 +31128,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31089,10 +31157,10 @@
         <v>118</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
@@ -31143,7 +31211,7 @@
         <v>73</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>74</v>
@@ -31163,10 +31231,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -31192,10 +31260,10 @@
         <v>80</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
@@ -31246,7 +31314,7 @@
         <v>73</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>74</v>
@@ -31266,10 +31334,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31369,10 +31437,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -31474,10 +31542,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -31581,10 +31649,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -31607,13 +31675,13 @@
         <v>73</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
@@ -31664,7 +31732,7 @@
         <v>73</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>74</v>
@@ -31684,10 +31752,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -31713,15 +31781,17 @@
         <v>118</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O281" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O281" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P281" t="s" s="2">
         <v>73</v>
       </c>
@@ -31769,7 +31839,7 @@
         <v>73</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>74</v>
@@ -31789,10 +31859,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -31815,13 +31885,13 @@
         <v>73</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -31872,7 +31942,7 @@
         <v>73</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>74</v>
@@ -31892,10 +31962,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -31921,13 +31991,13 @@
         <v>118</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="O283" s="2"/>
       <c r="P283" t="s" s="2">
@@ -31977,7 +32047,7 @@
         <v>73</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>74</v>
@@ -31997,10 +32067,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -32026,12 +32096,14 @@
         <v>80</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N284" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N284" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
         <v>73</v>
@@ -32080,7 +32152,7 @@
         <v>73</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>74</v>
@@ -32100,10 +32172,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -32203,10 +32275,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -32308,10 +32380,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -32415,10 +32487,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32426,7 +32498,7 @@
       </c>
       <c r="E288" s="2"/>
       <c r="F288" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G288" t="s" s="2">
         <v>79</v>
@@ -32441,13 +32513,13 @@
         <v>73</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>84</v>
+        <v>456</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
@@ -32498,10 +32570,10 @@
         <v>73</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>79</v>
@@ -32518,10 +32590,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32529,10 +32601,10 @@
       </c>
       <c r="E289" s="2"/>
       <c r="F289" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G289" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H289" t="s" s="2">
         <v>73</v>
@@ -32544,13 +32616,13 @@
         <v>73</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -32601,13 +32673,13 @@
         <v>73</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH289" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI289" t="s" s="2">
         <v>73</v>
@@ -32621,10 +32693,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -32632,10 +32704,10 @@
       </c>
       <c r="E290" s="2"/>
       <c r="F290" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G290" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H290" t="s" s="2">
         <v>73</v>
@@ -32647,13 +32719,13 @@
         <v>73</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>454</v>
+        <v>296</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -32704,13 +32776,13 @@
         <v>73</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH290" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI290" t="s" s="2">
         <v>73</v>
@@ -32724,10 +32796,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -32753,10 +32825,10 @@
         <v>84</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -32807,7 +32879,7 @@
         <v>73</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>74</v>
@@ -32827,10 +32899,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -32856,14 +32928,14 @@
         <v>84</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="P292" t="s" s="2">
         <v>73</v>
@@ -32912,7 +32984,7 @@
         <v>73</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>79</v>
@@ -32932,10 +33004,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -32961,14 +33033,14 @@
         <v>84</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P293" t="s" s="2">
         <v>73</v>
@@ -33017,7 +33089,7 @@
         <v>73</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>79</v>
@@ -33037,10 +33109,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -33066,10 +33138,10 @@
         <v>80</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
@@ -33120,7 +33192,7 @@
         <v>73</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>74</v>
@@ -33140,10 +33212,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33243,10 +33315,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -33348,10 +33420,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -33455,10 +33527,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -33538,7 +33610,7 @@
         <v>73</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>74</v>
@@ -33558,10 +33630,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -33594,7 +33666,7 @@
       </c>
       <c r="N299" s="2"/>
       <c r="O299" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="P299" t="s" s="2">
         <v>73</v>
@@ -33643,7 +33715,7 @@
         <v>73</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>74</v>
@@ -33663,10 +33735,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -33742,7 +33814,7 @@
         <v>73</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>74</v>
@@ -33762,10 +33834,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -33865,10 +33937,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -33970,10 +34042,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34077,10 +34149,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34106,13 +34178,13 @@
         <v>84</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="O304" s="2"/>
       <c r="P304" t="s" s="2">
@@ -34126,7 +34198,7 @@
         <v>73</v>
       </c>
       <c r="T304" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="U304" t="s" s="2">
         <v>73</v>
@@ -34162,7 +34234,7 @@
         <v>73</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>79</v>
@@ -34182,10 +34254,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34211,10 +34283,10 @@
         <v>80</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -34265,7 +34337,7 @@
         <v>73</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>74</v>
@@ -34285,10 +34357,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -34388,10 +34460,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -34493,10 +34565,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -34600,10 +34672,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -34687,7 +34759,7 @@
         <v>73</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>79</v>
@@ -34707,10 +34779,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -34792,7 +34864,7 @@
         <v>73</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>74</v>
@@ -34812,10 +34884,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -34893,7 +34965,7 @@
         <v>73</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AG311" t="s" s="2">
         <v>74</v>
@@ -34913,10 +34985,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -34998,7 +35070,7 @@
         <v>73</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>79</v>
@@ -35018,10 +35090,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -35103,7 +35175,7 @@
         <v>73</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>79</v>
@@ -35123,10 +35195,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -35206,7 +35278,7 @@
         <v>73</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>79</v>
@@ -35226,10 +35298,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -35329,10 +35401,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -35434,10 +35506,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -35541,10 +35613,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -35624,7 +35696,7 @@
         <v>73</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="AG318" t="s" s="2">
         <v>74</v>
@@ -35644,10 +35716,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -35747,10 +35819,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -35852,10 +35924,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -35959,10 +36031,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -36044,7 +36116,7 @@
         <v>73</v>
       </c>
       <c r="AF322" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="AG322" t="s" s="2">
         <v>79</v>
@@ -36064,10 +36136,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -36149,7 +36221,7 @@
         <v>73</v>
       </c>
       <c r="AF323" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="AG323" t="s" s="2">
         <v>79</v>
@@ -36169,10 +36241,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -36254,7 +36326,7 @@
         <v>73</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>74</v>
@@ -36274,10 +36346,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -36357,7 +36429,7 @@
         <v>73</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>74</v>
@@ -36377,10 +36449,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -36480,10 +36552,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -36585,10 +36657,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -36692,10 +36764,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -36775,7 +36847,7 @@
         <v>73</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AG329" t="s" s="2">
         <v>74</v>
@@ -36795,10 +36867,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -36880,7 +36952,7 @@
         <v>73</v>
       </c>
       <c r="AF330" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AG330" t="s" s="2">
         <v>79</v>
@@ -36900,10 +36972,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -36983,7 +37055,7 @@
         <v>73</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AG331" t="s" s="2">
         <v>74</v>
@@ -37003,10 +37075,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -37086,7 +37158,7 @@
         <v>73</v>
       </c>
       <c r="AF332" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AG332" t="s" s="2">
         <v>79</v>
@@ -37106,10 +37178,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -37209,10 +37281,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -37314,10 +37386,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -37421,10 +37493,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -37506,7 +37578,7 @@
         <v>73</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="AG336" t="s" s="2">
         <v>74</v>
@@ -37526,10 +37598,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -37611,7 +37683,7 @@
         <v>73</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>74</v>
@@ -37631,10 +37703,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -37716,7 +37788,7 @@
         <v>73</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>74</v>
@@ -37736,10 +37808,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -37821,7 +37893,7 @@
         <v>73</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>79</v>
@@ -37841,10 +37913,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -37926,7 +37998,7 @@
         <v>73</v>
       </c>
       <c r="AF340" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="AG340" t="s" s="2">
         <v>74</v>
@@ -37946,10 +38018,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -38029,7 +38101,7 @@
         <v>73</v>
       </c>
       <c r="AF341" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AG341" t="s" s="2">
         <v>74</v>
@@ -38049,10 +38121,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -38132,7 +38204,7 @@
         <v>73</v>
       </c>
       <c r="AF342" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="AG342" t="s" s="2">
         <v>74</v>
@@ -38152,10 +38224,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -38235,7 +38307,7 @@
         <v>73</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>74</v>
@@ -38255,10 +38327,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -38358,10 +38430,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -38463,10 +38535,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
@@ -38570,10 +38642,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -38651,7 +38723,7 @@
         <v>73</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>79</v>
@@ -38671,10 +38743,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -38754,7 +38826,7 @@
         <v>73</v>
       </c>
       <c r="AF348" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="AG348" t="s" s="2">
         <v>74</v>
@@ -38774,10 +38846,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -38857,7 +38929,7 @@
         <v>73</v>
       </c>
       <c r="AF349" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AG349" t="s" s="2">
         <v>74</v>
@@ -38877,10 +38949,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -38956,7 +39028,7 @@
         <v>73</v>
       </c>
       <c r="AF350" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AG350" t="s" s="2">
         <v>74</v>
@@ -38976,10 +39048,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -39079,10 +39151,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -39184,10 +39256,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" t="s" s="2">
@@ -39291,10 +39363,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" t="s" s="2">
@@ -39376,7 +39448,7 @@
         <v>73</v>
       </c>
       <c r="AF354" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AG354" t="s" s="2">
         <v>79</v>
@@ -39396,10 +39468,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s" s="2">
@@ -39481,7 +39553,7 @@
         <v>73</v>
       </c>
       <c r="AF355" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AG355" t="s" s="2">
         <v>79</v>
@@ -39501,10 +39573,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s" s="2">
@@ -39586,7 +39658,7 @@
         <v>73</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>79</v>
@@ -39606,10 +39678,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" t="s" s="2">
@@ -39691,7 +39763,7 @@
         <v>73</v>
       </c>
       <c r="AF357" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AG357" t="s" s="2">
         <v>79</v>
@@ -39711,10 +39783,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" t="s" s="2">
@@ -39740,10 +39812,10 @@
         <v>84</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
@@ -39794,7 +39866,7 @@
         <v>73</v>
       </c>
       <c r="AF358" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AG358" t="s" s="2">
         <v>74</v>
@@ -39814,10 +39886,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
@@ -39843,10 +39915,10 @@
         <v>80</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
@@ -39897,7 +39969,7 @@
         <v>73</v>
       </c>
       <c r="AF359" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="AG359" t="s" s="2">
         <v>74</v>
@@ -39917,10 +39989,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" t="s" s="2">
@@ -40020,10 +40092,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" t="s" s="2">
@@ -40125,10 +40197,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" t="s" s="2">
@@ -40232,10 +40304,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" t="s" s="2">
@@ -40315,7 +40387,7 @@
         <v>73</v>
       </c>
       <c r="AF363" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AG363" t="s" s="2">
         <v>74</v>
@@ -40335,10 +40407,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" t="s" s="2">
@@ -40371,7 +40443,7 @@
       </c>
       <c r="N364" s="2"/>
       <c r="O364" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="P364" t="s" s="2">
         <v>73</v>
@@ -40420,7 +40492,7 @@
         <v>73</v>
       </c>
       <c r="AF364" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AG364" t="s" s="2">
         <v>74</v>
@@ -40440,10 +40512,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" t="s" s="2">
@@ -40519,7 +40591,7 @@
         <v>73</v>
       </c>
       <c r="AF365" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AG365" t="s" s="2">
         <v>79</v>
@@ -40539,10 +40611,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" t="s" s="2">
@@ -40642,10 +40714,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" t="s" s="2">
@@ -40747,10 +40819,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" t="s" s="2">
@@ -40854,10 +40926,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" t="s" s="2">
@@ -40886,7 +40958,7 @@
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
       <c r="O369" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="P369" t="s" s="2">
         <v>73</v>
@@ -40935,7 +41007,7 @@
         <v>73</v>
       </c>
       <c r="AF369" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AG369" t="s" s="2">
         <v>74</v>
@@ -40955,10 +41027,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" t="s" s="2">
@@ -41034,7 +41106,7 @@
         <v>73</v>
       </c>
       <c r="AF370" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="AG370" t="s" s="2">
         <v>74</v>
@@ -41054,10 +41126,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" t="s" s="2">
@@ -41157,10 +41229,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" t="s" s="2">
@@ -41262,10 +41334,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" t="s" s="2">
@@ -41369,10 +41441,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" t="s" s="2">
@@ -41398,13 +41470,13 @@
         <v>84</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="O374" s="2"/>
       <c r="P374" t="s" s="2">
@@ -41418,7 +41490,7 @@
         <v>73</v>
       </c>
       <c r="T374" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="U374" t="s" s="2">
         <v>73</v>
@@ -41454,7 +41526,7 @@
         <v>73</v>
       </c>
       <c r="AF374" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AG374" t="s" s="2">
         <v>79</v>
@@ -41474,10 +41546,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
@@ -41503,10 +41575,10 @@
         <v>80</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
@@ -41557,7 +41629,7 @@
         <v>73</v>
       </c>
       <c r="AF375" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="AG375" t="s" s="2">
         <v>74</v>
@@ -41577,10 +41649,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" t="s" s="2">
@@ -41680,10 +41752,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" t="s" s="2">
@@ -41785,10 +41857,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" t="s" s="2">
@@ -41892,10 +41964,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" t="s" s="2">
@@ -41975,7 +42047,7 @@
         <v>73</v>
       </c>
       <c r="AF379" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="AG379" t="s" s="2">
         <v>74</v>
@@ -41995,10 +42067,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" t="s" s="2">
@@ -42080,7 +42152,7 @@
         <v>73</v>
       </c>
       <c r="AF380" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="AG380" t="s" s="2">
         <v>74</v>
@@ -42100,10 +42172,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" t="s" s="2">
@@ -42179,7 +42251,7 @@
         <v>73</v>
       </c>
       <c r="AF381" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="AG381" t="s" s="2">
         <v>79</v>
@@ -42199,10 +42271,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" t="s" s="2">
@@ -42302,10 +42374,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
@@ -42407,10 +42479,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" t="s" s="2">
@@ -42514,10 +42586,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" t="s" s="2">
@@ -42595,7 +42667,7 @@
         <v>73</v>
       </c>
       <c r="AF385" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="AG385" t="s" s="2">
         <v>79</v>
@@ -42615,10 +42687,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" t="s" s="2">
@@ -42696,7 +42768,7 @@
         <v>73</v>
       </c>
       <c r="AF386" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="AG386" t="s" s="2">
         <v>74</v>
@@ -42716,10 +42788,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" t="s" s="2">
@@ -42745,10 +42817,10 @@
         <v>80</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N387" s="2"/>
       <c r="O387" s="2"/>
@@ -42799,7 +42871,7 @@
         <v>73</v>
       </c>
       <c r="AF387" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AG387" t="s" s="2">
         <v>74</v>
@@ -42819,10 +42891,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" t="s" s="2">
@@ -42922,10 +42994,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" t="s" s="2">
@@ -43027,10 +43099,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" t="s" s="2">
@@ -43134,10 +43206,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
@@ -43215,7 +43287,7 @@
         <v>73</v>
       </c>
       <c r="AF391" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="AG391" t="s" s="2">
         <v>79</v>
@@ -43235,10 +43307,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" t="s" s="2">
@@ -43316,7 +43388,7 @@
         <v>73</v>
       </c>
       <c r="AF392" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="AG392" t="s" s="2">
         <v>74</v>
@@ -43336,10 +43408,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" t="s" s="2">
@@ -43365,13 +43437,15 @@
         <v>164</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="N393" s="2"/>
-      <c r="O393" s="2"/>
+      <c r="O393" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="P393" t="s" s="2">
         <v>73</v>
       </c>
@@ -43419,7 +43493,7 @@
         <v>73</v>
       </c>
       <c r="AF393" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="AG393" t="s" s="2">
         <v>74</v>
@@ -43439,10 +43513,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" t="s" s="2">
@@ -43468,10 +43542,10 @@
         <v>80</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
@@ -43522,7 +43596,7 @@
         <v>73</v>
       </c>
       <c r="AF394" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AG394" t="s" s="2">
         <v>74</v>
@@ -43542,10 +43616,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" t="s" s="2">
@@ -43645,10 +43719,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" t="s" s="2">
@@ -43750,10 +43824,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" t="s" s="2">
@@ -43857,10 +43931,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" t="s" s="2">
@@ -43886,10 +43960,10 @@
         <v>80</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
@@ -43940,7 +44014,7 @@
         <v>73</v>
       </c>
       <c r="AF398" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AG398" t="s" s="2">
         <v>74</v>
@@ -43960,10 +44034,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" t="s" s="2">
@@ -44063,10 +44137,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" t="s" s="2">
@@ -44168,10 +44242,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" t="s" s="2">
@@ -44275,10 +44349,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" t="s" s="2">
@@ -44301,13 +44375,13 @@
         <v>73</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N402" s="2"/>
       <c r="O402" s="2"/>
@@ -44358,7 +44432,7 @@
         <v>73</v>
       </c>
       <c r="AF402" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="AG402" t="s" s="2">
         <v>74</v>
@@ -44378,10 +44452,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" t="s" s="2">
@@ -44407,10 +44481,10 @@
         <v>118</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N403" s="2"/>
       <c r="O403" s="2"/>
@@ -44461,7 +44535,7 @@
         <v>73</v>
       </c>
       <c r="AF403" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="AG403" t="s" s="2">
         <v>74</v>
@@ -44481,10 +44555,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" t="s" s="2">
@@ -44507,13 +44581,13 @@
         <v>73</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N404" s="2"/>
       <c r="O404" s="2"/>
@@ -44564,7 +44638,7 @@
         <v>73</v>
       </c>
       <c r="AF404" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="AG404" t="s" s="2">
         <v>74</v>
@@ -44584,10 +44658,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" t="s" s="2">
@@ -44613,10 +44687,10 @@
         <v>118</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
@@ -44667,7 +44741,7 @@
         <v>73</v>
       </c>
       <c r="AF405" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="AG405" t="s" s="2">
         <v>74</v>
@@ -44687,10 +44761,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" t="s" s="2">
@@ -44716,10 +44790,10 @@
         <v>80</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="N406" s="2"/>
       <c r="O406" s="2"/>
@@ -44770,7 +44844,7 @@
         <v>73</v>
       </c>
       <c r="AF406" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="AG406" t="s" s="2">
         <v>74</v>
@@ -44790,10 +44864,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
@@ -44893,10 +44967,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" t="s" s="2">
@@ -44998,10 +45072,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" t="s" s="2">
@@ -45105,10 +45179,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" t="s" s="2">
@@ -45131,13 +45205,13 @@
         <v>73</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N410" s="2"/>
       <c r="O410" s="2"/>
@@ -45188,7 +45262,7 @@
         <v>73</v>
       </c>
       <c r="AF410" t="s" s="2">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="AG410" t="s" s="2">
         <v>74</v>
@@ -45208,10 +45282,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" t="s" s="2">
@@ -45237,15 +45311,17 @@
         <v>118</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O411" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P411" t="s" s="2">
         <v>73</v>
       </c>
@@ -45293,7 +45369,7 @@
         <v>73</v>
       </c>
       <c r="AF411" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AG411" t="s" s="2">
         <v>74</v>
@@ -45313,10 +45389,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" t="s" s="2">
@@ -45339,13 +45415,13 @@
         <v>73</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
@@ -45396,7 +45472,7 @@
         <v>73</v>
       </c>
       <c r="AF412" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="AG412" t="s" s="2">
         <v>74</v>
@@ -45416,10 +45492,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" t="s" s="2">
@@ -45445,13 +45521,13 @@
         <v>118</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="O413" s="2"/>
       <c r="P413" t="s" s="2">
@@ -45501,7 +45577,7 @@
         <v>73</v>
       </c>
       <c r="AF413" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="AG413" t="s" s="2">
         <v>74</v>
@@ -45521,10 +45597,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" t="s" s="2">
@@ -45550,12 +45626,14 @@
         <v>80</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N414" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N414" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O414" s="2"/>
       <c r="P414" t="s" s="2">
         <v>73</v>
@@ -45604,7 +45682,7 @@
         <v>73</v>
       </c>
       <c r="AF414" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="AG414" t="s" s="2">
         <v>74</v>
@@ -45624,10 +45702,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" t="s" s="2">
@@ -45727,10 +45805,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" t="s" s="2">
@@ -45832,10 +45910,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" t="s" s="2">
@@ -45939,10 +46017,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" t="s" s="2">
@@ -45950,7 +46028,7 @@
       </c>
       <c r="E418" s="2"/>
       <c r="F418" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G418" t="s" s="2">
         <v>79</v>
@@ -45965,13 +46043,13 @@
         <v>73</v>
       </c>
       <c r="K418" t="s" s="2">
-        <v>84</v>
+        <v>456</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="N418" s="2"/>
       <c r="O418" s="2"/>
@@ -46022,10 +46100,10 @@
         <v>73</v>
       </c>
       <c r="AF418" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH418" t="s" s="2">
         <v>79</v>
@@ -46042,10 +46120,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" t="s" s="2">
@@ -46053,10 +46131,10 @@
       </c>
       <c r="E419" s="2"/>
       <c r="F419" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G419" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H419" t="s" s="2">
         <v>73</v>
@@ -46068,13 +46146,13 @@
         <v>73</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
@@ -46125,13 +46203,13 @@
         <v>73</v>
       </c>
       <c r="AF419" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH419" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI419" t="s" s="2">
         <v>73</v>
@@ -46145,10 +46223,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" t="s" s="2">
@@ -46156,10 +46234,10 @@
       </c>
       <c r="E420" s="2"/>
       <c r="F420" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G420" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H420" t="s" s="2">
         <v>73</v>
@@ -46171,13 +46249,13 @@
         <v>73</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>454</v>
+        <v>296</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>
@@ -46228,13 +46306,13 @@
         <v>73</v>
       </c>
       <c r="AF420" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH420" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI420" t="s" s="2">
         <v>73</v>
@@ -46248,10 +46326,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" t="s" s="2">
@@ -46277,10 +46355,10 @@
         <v>84</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="N421" s="2"/>
       <c r="O421" s="2"/>
@@ -46331,7 +46409,7 @@
         <v>73</v>
       </c>
       <c r="AF421" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="AG421" t="s" s="2">
         <v>74</v>
@@ -46351,10 +46429,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" t="s" s="2">
@@ -46380,14 +46458,14 @@
         <v>80</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="N422" s="2"/>
       <c r="O422" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="P422" t="s" s="2">
         <v>73</v>
@@ -46436,7 +46514,7 @@
         <v>73</v>
       </c>
       <c r="AF422" t="s" s="2">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="AG422" t="s" s="2">
         <v>74</v>
@@ -46456,10 +46534,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
@@ -46559,10 +46637,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" t="s" s="2">
@@ -46664,10 +46742,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" t="s" s="2">
@@ -46771,10 +46849,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" t="s" s="2">
@@ -46850,7 +46928,7 @@
         <v>73</v>
       </c>
       <c r="AF426" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="AG426" t="s" s="2">
         <v>74</v>
@@ -46870,10 +46948,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" t="s" s="2">
@@ -46899,10 +46977,10 @@
         <v>80</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
@@ -46953,7 +47031,7 @@
         <v>73</v>
       </c>
       <c r="AF427" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="AG427" t="s" s="2">
         <v>74</v>
@@ -46973,10 +47051,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" t="s" s="2">
@@ -47076,10 +47154,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" t="s" s="2">
@@ -47181,10 +47259,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" t="s" s="2">
@@ -47288,10 +47366,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" t="s" s="2">
@@ -47317,10 +47395,10 @@
         <v>80</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
@@ -47371,7 +47449,7 @@
         <v>73</v>
       </c>
       <c r="AF431" t="s" s="2">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="AG431" t="s" s="2">
         <v>74</v>
@@ -47391,10 +47469,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" t="s" s="2">
@@ -47494,10 +47572,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" t="s" s="2">
@@ -47599,10 +47677,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" t="s" s="2">
@@ -47706,10 +47784,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" t="s" s="2">
@@ -47735,10 +47813,10 @@
         <v>296</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
@@ -47789,7 +47867,7 @@
         <v>73</v>
       </c>
       <c r="AF435" t="s" s="2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="AG435" t="s" s="2">
         <v>74</v>
@@ -47809,10 +47887,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" t="s" s="2">
@@ -47838,10 +47916,10 @@
         <v>80</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>445</v>
+        <v>651</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>445</v>
+        <v>651</v>
       </c>
       <c r="N436" s="2"/>
       <c r="O436" s="2"/>
@@ -47892,7 +47970,7 @@
         <v>73</v>
       </c>
       <c r="AF436" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="AG436" t="s" s="2">
         <v>74</v>
@@ -47912,10 +47990,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" t="s" s="2">
@@ -48015,10 +48093,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" t="s" s="2">
@@ -48120,10 +48198,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
@@ -48227,10 +48305,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" t="s" s="2">
@@ -48256,10 +48334,10 @@
         <v>84</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
@@ -48310,7 +48388,7 @@
         <v>73</v>
       </c>
       <c r="AF440" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="AG440" t="s" s="2">
         <v>74</v>
@@ -48330,10 +48408,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" t="s" s="2">
@@ -48344,7 +48422,7 @@
         <v>74</v>
       </c>
       <c r="G441" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H441" t="s" s="2">
         <v>73</v>
@@ -48356,13 +48434,13 @@
         <v>73</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>445</v>
+        <v>657</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>445</v>
+        <v>657</v>
       </c>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
@@ -48413,19 +48491,19 @@
         <v>73</v>
       </c>
       <c r="AF441" t="s" s="2">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="AG441" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH441" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI441" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ441" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AK441" t="s" s="2">
         <v>73</v>
@@ -48433,10 +48511,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" t="s" s="2">
@@ -48447,7 +48525,7 @@
         <v>74</v>
       </c>
       <c r="G442" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H442" t="s" s="2">
         <v>73</v>
@@ -48459,13 +48537,13 @@
         <v>73</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>84</v>
+        <v>296</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>85</v>
+        <v>657</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>86</v>
+        <v>657</v>
       </c>
       <c r="N442" s="2"/>
       <c r="O442" s="2"/>
@@ -48516,13 +48594,13 @@
         <v>73</v>
       </c>
       <c r="AF442" t="s" s="2">
-        <v>87</v>
+        <v>658</v>
       </c>
       <c r="AG442" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH442" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI442" t="s" s="2">
         <v>73</v>
@@ -48531,26 +48609,26 @@
         <v>73</v>
       </c>
       <c r="AK442" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E443" s="2"/>
       <c r="F443" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G443" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H443" t="s" s="2">
         <v>73</v>
@@ -48562,17 +48640,15 @@
         <v>73</v>
       </c>
       <c r="K443" t="s" s="2">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>92</v>
+        <v>657</v>
       </c>
       <c r="M443" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N443" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N443" s="2"/>
       <c r="O443" s="2"/>
       <c r="P443" t="s" s="2">
         <v>73</v>
@@ -48609,78 +48685,74 @@
         <v>73</v>
       </c>
       <c r="AB443" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC443" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AD443" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE443" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AF443" t="s" s="2">
-        <v>98</v>
+        <v>659</v>
       </c>
       <c r="AG443" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH443" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI443" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ443" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK443" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E444" s="2"/>
       <c r="F444" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G444" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H444" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I444" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J444" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>103</v>
+        <v>657</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N444" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O444" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N444" s="2"/>
+      <c r="O444" s="2"/>
       <c r="P444" t="s" s="2">
         <v>73</v>
       </c>
@@ -48728,30 +48800,30 @@
         <v>73</v>
       </c>
       <c r="AF444" t="s" s="2">
-        <v>106</v>
+        <v>660</v>
       </c>
       <c r="AG444" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH444" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI444" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ444" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK444" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" t="s" s="2">
@@ -48774,17 +48846,15 @@
         <v>73</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>652</v>
+        <v>446</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N445" t="s" s="2">
-        <v>653</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N445" s="2"/>
       <c r="O445" s="2"/>
       <c r="P445" t="s" s="2">
         <v>73</v>
@@ -48833,7 +48903,7 @@
         <v>73</v>
       </c>
       <c r="AF445" t="s" s="2">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="AG445" t="s" s="2">
         <v>74</v>
@@ -48845,7 +48915,7 @@
         <v>73</v>
       </c>
       <c r="AJ445" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK445" t="s" s="2">
         <v>73</v>
@@ -48853,10 +48923,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" t="s" s="2">
@@ -48867,7 +48937,7 @@
         <v>74</v>
       </c>
       <c r="G446" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H446" t="s" s="2">
         <v>73</v>
@@ -48879,13 +48949,13 @@
         <v>73</v>
       </c>
       <c r="K446" t="s" s="2">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>655</v>
+        <v>85</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>655</v>
+        <v>86</v>
       </c>
       <c r="N446" s="2"/>
       <c r="O446" s="2"/>
@@ -48936,41 +49006,41 @@
         <v>73</v>
       </c>
       <c r="AF446" t="s" s="2">
-        <v>654</v>
+        <v>87</v>
       </c>
       <c r="AG446" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH446" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI446" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ446" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AK446" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E447" s="2"/>
       <c r="F447" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G447" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H447" t="s" s="2">
         <v>73</v>
@@ -48982,15 +49052,17 @@
         <v>73</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>280</v>
+        <v>92</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N447" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N447" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O447" s="2"/>
       <c r="P447" t="s" s="2">
         <v>73</v>
@@ -49027,46 +49099,46 @@
         <v>73</v>
       </c>
       <c r="AB447" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC447" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AD447" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE447" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AF447" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AG447" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH447" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI447" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ447" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AK447" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E448" s="2"/>
       <c r="F448" t="s" s="2">
@@ -49079,24 +49151,26 @@
         <v>73</v>
       </c>
       <c r="I448" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="J448" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K448" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="N448" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O448" s="2"/>
+      <c r="O448" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P448" t="s" s="2">
         <v>73</v>
       </c>
@@ -49144,7 +49218,7 @@
         <v>73</v>
       </c>
       <c r="AF448" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG448" t="s" s="2">
         <v>74</v>
@@ -49159,15 +49233,15 @@
         <v>99</v>
       </c>
       <c r="AK448" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" t="s" s="2">
@@ -49178,7 +49252,7 @@
         <v>74</v>
       </c>
       <c r="G449" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H449" t="s" s="2">
         <v>73</v>
@@ -49190,15 +49264,17 @@
         <v>73</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N449" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="O449" s="2"/>
       <c r="P449" t="s" s="2">
         <v>73</v>
@@ -49214,10 +49290,10 @@
         <v>73</v>
       </c>
       <c r="U449" t="s" s="2">
-        <v>660</v>
+        <v>73</v>
       </c>
       <c r="V449" t="s" s="2">
-        <v>661</v>
+        <v>73</v>
       </c>
       <c r="W449" t="s" s="2">
         <v>73</v>
@@ -49247,13 +49323,13 @@
         <v>73</v>
       </c>
       <c r="AF449" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AG449" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH449" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI449" t="s" s="2">
         <v>73</v>
@@ -49267,10 +49343,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" t="s" s="2">
@@ -49278,10 +49354,10 @@
       </c>
       <c r="E450" s="2"/>
       <c r="F450" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G450" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H450" t="s" s="2">
         <v>73</v>
@@ -49293,17 +49369,15 @@
         <v>73</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N450" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="N450" s="2"/>
       <c r="O450" s="2"/>
       <c r="P450" t="s" s="2">
         <v>73</v>
@@ -49316,7 +49390,7 @@
         <v>73</v>
       </c>
       <c r="T450" t="s" s="2">
-        <v>666</v>
+        <v>73</v>
       </c>
       <c r="U450" t="s" s="2">
         <v>73</v>
@@ -49352,19 +49426,19 @@
         <v>73</v>
       </c>
       <c r="AF450" t="s" s="2">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AG450" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH450" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI450" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ450" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK450" t="s" s="2">
         <v>73</v>
@@ -49372,10 +49446,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" t="s" s="2">
@@ -49386,7 +49460,7 @@
         <v>74</v>
       </c>
       <c r="G451" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H451" t="s" s="2">
         <v>73</v>
@@ -49398,13 +49472,13 @@
         <v>73</v>
       </c>
       <c r="K451" t="s" s="2">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>668</v>
+        <v>280</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>668</v>
+        <v>281</v>
       </c>
       <c r="N451" s="2"/>
       <c r="O451" s="2"/>
@@ -49455,13 +49529,13 @@
         <v>73</v>
       </c>
       <c r="AF451" t="s" s="2">
-        <v>667</v>
+        <v>87</v>
       </c>
       <c r="AG451" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH451" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI451" t="s" s="2">
         <v>73</v>
@@ -49475,14 +49549,14 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E452" s="2"/>
       <c r="F452" t="s" s="2">
@@ -49501,15 +49575,17 @@
         <v>73</v>
       </c>
       <c r="K452" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>670</v>
+        <v>92</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N452" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N452" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O452" s="2"/>
       <c r="P452" t="s" s="2">
         <v>73</v>
@@ -49558,7 +49634,7 @@
         <v>73</v>
       </c>
       <c r="AF452" t="s" s="2">
-        <v>669</v>
+        <v>98</v>
       </c>
       <c r="AG452" t="s" s="2">
         <v>74</v>
@@ -49570,7 +49646,7 @@
         <v>73</v>
       </c>
       <c r="AJ452" t="s" s="2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="AK452" t="s" s="2">
         <v>73</v>
@@ -49578,10 +49654,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" t="s" s="2">
@@ -49604,13 +49680,13 @@
         <v>73</v>
       </c>
       <c r="K453" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="L453" t="s" s="2">
-        <v>85</v>
+        <v>673</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="N453" s="2"/>
       <c r="O453" s="2"/>
@@ -49628,10 +49704,10 @@
         <v>73</v>
       </c>
       <c r="U453" t="s" s="2">
-        <v>73</v>
+        <v>674</v>
       </c>
       <c r="V453" t="s" s="2">
-        <v>73</v>
+        <v>675</v>
       </c>
       <c r="W453" t="s" s="2">
         <v>73</v>
@@ -49661,7 +49737,7 @@
         <v>73</v>
       </c>
       <c r="AF453" t="s" s="2">
-        <v>87</v>
+        <v>676</v>
       </c>
       <c r="AG453" t="s" s="2">
         <v>74</v>
@@ -49676,26 +49752,26 @@
         <v>73</v>
       </c>
       <c r="AK453" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E454" s="2"/>
       <c r="F454" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G454" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H454" t="s" s="2">
         <v>73</v>
@@ -49707,16 +49783,16 @@
         <v>73</v>
       </c>
       <c r="K454" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>92</v>
+        <v>678</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>93</v>
+        <v>678</v>
       </c>
       <c r="N454" t="s" s="2">
-        <v>94</v>
+        <v>679</v>
       </c>
       <c r="O454" s="2"/>
       <c r="P454" t="s" s="2">
@@ -49730,7 +49806,7 @@
         <v>73</v>
       </c>
       <c r="T454" t="s" s="2">
-        <v>73</v>
+        <v>680</v>
       </c>
       <c r="U454" t="s" s="2">
         <v>73</v>
@@ -49754,46 +49830,46 @@
         <v>73</v>
       </c>
       <c r="AB454" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC454" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AD454" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE454" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AF454" t="s" s="2">
-        <v>98</v>
+        <v>677</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH454" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI454" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ454" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK454" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E455" s="2"/>
       <c r="F455" t="s" s="2">
@@ -49806,26 +49882,22 @@
         <v>73</v>
       </c>
       <c r="I455" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J455" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>103</v>
+        <v>682</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N455" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O455" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="N455" s="2"/>
+      <c r="O455" s="2"/>
       <c r="P455" t="s" s="2">
         <v>73</v>
       </c>
@@ -49873,7 +49945,7 @@
         <v>73</v>
       </c>
       <c r="AF455" t="s" s="2">
-        <v>106</v>
+        <v>681</v>
       </c>
       <c r="AG455" t="s" s="2">
         <v>74</v>
@@ -49885,18 +49957,18 @@
         <v>73</v>
       </c>
       <c r="AJ455" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK455" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" t="s" s="2">
@@ -49904,10 +49976,10 @@
       </c>
       <c r="E456" s="2"/>
       <c r="F456" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G456" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H456" t="s" s="2">
         <v>73</v>
@@ -49919,18 +49991,16 @@
         <v>73</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>315</v>
+        <v>684</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>315</v>
+        <v>684</v>
       </c>
       <c r="N456" s="2"/>
-      <c r="O456" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="O456" s="2"/>
       <c r="P456" t="s" s="2">
         <v>73</v>
       </c>
@@ -49978,19 +50048,19 @@
         <v>73</v>
       </c>
       <c r="AF456" t="s" s="2">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="AG456" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH456" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI456" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ456" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK456" t="s" s="2">
         <v>73</v>
@@ -49998,10 +50068,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" t="s" s="2">
@@ -50009,10 +50079,10 @@
       </c>
       <c r="E457" s="2"/>
       <c r="F457" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G457" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H457" t="s" s="2">
         <v>73</v>
@@ -50024,13 +50094,13 @@
         <v>73</v>
       </c>
       <c r="K457" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>445</v>
+        <v>85</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
@@ -50081,41 +50151,41 @@
         <v>73</v>
       </c>
       <c r="AF457" t="s" s="2">
-        <v>675</v>
+        <v>87</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH457" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI457" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ457" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AK457" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E458" s="2"/>
       <c r="F458" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G458" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H458" t="s" s="2">
         <v>73</v>
@@ -50127,15 +50197,17 @@
         <v>73</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N458" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O458" s="2"/>
       <c r="P458" t="s" s="2">
         <v>73</v>
@@ -50172,31 +50244,31 @@
         <v>73</v>
       </c>
       <c r="AB458" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC458" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AD458" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AF458" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AG458" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH458" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI458" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ458" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AK458" t="s" s="2">
         <v>88</v>
@@ -50204,14 +50276,14 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E459" s="2"/>
       <c r="F459" t="s" s="2">
@@ -50224,24 +50296,26 @@
         <v>73</v>
       </c>
       <c r="I459" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="J459" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K459" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N459" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O459" s="2"/>
+      <c r="O459" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P459" t="s" s="2">
         <v>73</v>
       </c>
@@ -50277,19 +50351,19 @@
         <v>73</v>
       </c>
       <c r="AB459" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC459" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AD459" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE459" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AF459" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG459" t="s" s="2">
         <v>74</v>
@@ -50304,50 +50378,48 @@
         <v>99</v>
       </c>
       <c r="AK459" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E460" s="2"/>
       <c r="F460" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G460" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H460" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I460" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J460" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K460" t="s" s="2">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N460" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N460" s="2"/>
       <c r="O460" t="s" s="2">
-        <v>105</v>
+        <v>316</v>
       </c>
       <c r="P460" t="s" s="2">
         <v>73</v>
@@ -50396,30 +50468,30 @@
         <v>73</v>
       </c>
       <c r="AF460" t="s" s="2">
-        <v>106</v>
+        <v>688</v>
       </c>
       <c r="AG460" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH460" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI460" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ460" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK460" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" t="s" s="2">
@@ -50427,7 +50499,7 @@
       </c>
       <c r="E461" s="2"/>
       <c r="F461" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G461" t="s" s="2">
         <v>75</v>
@@ -50442,14 +50514,16 @@
         <v>73</v>
       </c>
       <c r="K461" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L461" s="2"/>
-      <c r="M461" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="L461" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M461" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="N461" s="2"/>
-      <c r="O461" t="s" s="2">
-        <v>680</v>
-      </c>
+      <c r="O461" s="2"/>
       <c r="P461" t="s" s="2">
         <v>73</v>
       </c>
@@ -50497,10 +50571,10 @@
         <v>73</v>
       </c>
       <c r="AF461" t="s" s="2">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>75</v>
@@ -50509,7 +50583,7 @@
         <v>73</v>
       </c>
       <c r="AJ461" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK461" t="s" s="2">
         <v>73</v>
@@ -50517,10 +50591,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" t="s" s="2">
@@ -50528,7 +50602,7 @@
       </c>
       <c r="E462" s="2"/>
       <c r="F462" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G462" t="s" s="2">
         <v>79</v>
@@ -50543,13 +50617,13 @@
         <v>73</v>
       </c>
       <c r="K462" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>445</v>
+        <v>85</v>
       </c>
       <c r="M462" t="s" s="2">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
@@ -50600,10 +50674,10 @@
         <v>73</v>
       </c>
       <c r="AF462" t="s" s="2">
-        <v>681</v>
+        <v>87</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>79</v>
@@ -50612,29 +50686,29 @@
         <v>73</v>
       </c>
       <c r="AJ462" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AK462" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E463" s="2"/>
       <c r="F463" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G463" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H463" t="s" s="2">
         <v>73</v>
@@ -50646,15 +50720,17 @@
         <v>73</v>
       </c>
       <c r="K463" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N463" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N463" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O463" s="2"/>
       <c r="P463" t="s" s="2">
         <v>73</v>
@@ -50691,31 +50767,31 @@
         <v>73</v>
       </c>
       <c r="AB463" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC463" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AD463" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE463" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AF463" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AG463" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH463" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI463" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ463" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AK463" t="s" s="2">
         <v>88</v>
@@ -50723,14 +50799,14 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E464" s="2"/>
       <c r="F464" t="s" s="2">
@@ -50743,24 +50819,26 @@
         <v>73</v>
       </c>
       <c r="I464" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="J464" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K464" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N464" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O464" s="2"/>
+      <c r="O464" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P464" t="s" s="2">
         <v>73</v>
       </c>
@@ -50796,19 +50874,19 @@
         <v>73</v>
       </c>
       <c r="AB464" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC464" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AD464" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE464" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AF464" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG464" t="s" s="2">
         <v>74</v>
@@ -50823,19 +50901,19 @@
         <v>99</v>
       </c>
       <c r="AK464" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E465" s="2"/>
       <c r="F465" t="s" s="2">
@@ -50848,25 +50926,19 @@
         <v>73</v>
       </c>
       <c r="I465" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J465" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L465" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M465" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N465" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="L465" s="2"/>
+      <c r="M465" s="2"/>
+      <c r="N465" s="2"/>
       <c r="O465" t="s" s="2">
-        <v>105</v>
+        <v>694</v>
       </c>
       <c r="P465" t="s" s="2">
         <v>73</v>
@@ -50915,7 +50987,7 @@
         <v>73</v>
       </c>
       <c r="AF465" t="s" s="2">
-        <v>106</v>
+        <v>693</v>
       </c>
       <c r="AG465" t="s" s="2">
         <v>74</v>
@@ -50927,18 +50999,18 @@
         <v>73</v>
       </c>
       <c r="AJ465" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK465" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" t="s" s="2">
@@ -50946,10 +51018,10 @@
       </c>
       <c r="E466" s="2"/>
       <c r="F466" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G466" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H466" t="s" s="2">
         <v>73</v>
@@ -50961,13 +51033,13 @@
         <v>73</v>
       </c>
       <c r="K466" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>686</v>
+        <v>446</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>686</v>
+        <v>446</v>
       </c>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
@@ -51018,19 +51090,19 @@
         <v>73</v>
       </c>
       <c r="AF466" t="s" s="2">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH466" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI466" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ466" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK466" t="s" s="2">
         <v>73</v>
@@ -51038,10 +51110,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" t="s" s="2">
@@ -51052,7 +51124,7 @@
         <v>74</v>
       </c>
       <c r="G467" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H467" t="s" s="2">
         <v>73</v>
@@ -51064,13 +51136,13 @@
         <v>73</v>
       </c>
       <c r="K467" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>688</v>
+        <v>86</v>
       </c>
       <c r="N467" s="2"/>
       <c r="O467" s="2"/>
@@ -51121,41 +51193,41 @@
         <v>73</v>
       </c>
       <c r="AF467" t="s" s="2">
-        <v>687</v>
+        <v>87</v>
       </c>
       <c r="AG467" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH467" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI467" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ467" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AK467" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E468" s="2"/>
       <c r="F468" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G468" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H468" t="s" s="2">
         <v>73</v>
@@ -51167,15 +51239,17 @@
         <v>73</v>
       </c>
       <c r="K468" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N468" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N468" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O468" s="2"/>
       <c r="P468" t="s" s="2">
         <v>73</v>
@@ -51212,31 +51286,31 @@
         <v>73</v>
       </c>
       <c r="AB468" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC468" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AD468" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE468" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AF468" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AG468" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH468" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI468" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ468" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AK468" t="s" s="2">
         <v>88</v>
@@ -51244,14 +51318,14 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E469" s="2"/>
       <c r="F469" t="s" s="2">
@@ -51264,24 +51338,26 @@
         <v>73</v>
       </c>
       <c r="I469" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K469" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L469" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N469" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O469" s="2"/>
+      <c r="O469" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P469" t="s" s="2">
         <v>73</v>
       </c>
@@ -51317,19 +51393,19 @@
         <v>73</v>
       </c>
       <c r="AB469" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC469" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AD469" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE469" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AF469" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG469" t="s" s="2">
         <v>74</v>
@@ -51344,19 +51420,19 @@
         <v>99</v>
       </c>
       <c r="AK469" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E470" s="2"/>
       <c r="F470" t="s" s="2">
@@ -51369,26 +51445,22 @@
         <v>73</v>
       </c>
       <c r="I470" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J470" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K470" t="s" s="2">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>103</v>
+        <v>700</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N470" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O470" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="N470" s="2"/>
+      <c r="O470" s="2"/>
       <c r="P470" t="s" s="2">
         <v>73</v>
       </c>
@@ -51436,7 +51508,7 @@
         <v>73</v>
       </c>
       <c r="AF470" t="s" s="2">
-        <v>106</v>
+        <v>699</v>
       </c>
       <c r="AG470" t="s" s="2">
         <v>74</v>
@@ -51448,18 +51520,18 @@
         <v>73</v>
       </c>
       <c r="AJ470" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK470" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s" s="2">
@@ -51482,18 +51554,16 @@
         <v>73</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>445</v>
+        <v>702</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>445</v>
+        <v>702</v>
       </c>
       <c r="N471" s="2"/>
-      <c r="O471" t="s" s="2">
-        <v>693</v>
-      </c>
+      <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
         <v>73</v>
       </c>
@@ -51541,7 +51611,7 @@
         <v>73</v>
       </c>
       <c r="AF471" t="s" s="2">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="AG471" t="s" s="2">
         <v>74</v>
@@ -51553,7 +51623,7 @@
         <v>73</v>
       </c>
       <c r="AJ471" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK471" t="s" s="2">
         <v>73</v>
@@ -51561,10 +51631,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" t="s" s="2">
@@ -51575,7 +51645,7 @@
         <v>74</v>
       </c>
       <c r="G472" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H472" t="s" s="2">
         <v>73</v>
@@ -51587,13 +51657,13 @@
         <v>73</v>
       </c>
       <c r="K472" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>695</v>
+        <v>85</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>695</v>
+        <v>86</v>
       </c>
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
@@ -51644,41 +51714,41 @@
         <v>73</v>
       </c>
       <c r="AF472" t="s" s="2">
-        <v>694</v>
+        <v>87</v>
       </c>
       <c r="AG472" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH472" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI472" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ472" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AK472" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E473" s="2"/>
       <c r="F473" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G473" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H473" t="s" s="2">
         <v>73</v>
@@ -51690,15 +51760,17 @@
         <v>73</v>
       </c>
       <c r="K473" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N473" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N473" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O473" s="2"/>
       <c r="P473" t="s" s="2">
         <v>73</v>
@@ -51735,31 +51807,31 @@
         <v>73</v>
       </c>
       <c r="AB473" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AC473" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AD473" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE473" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AF473" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AG473" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH473" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI473" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ473" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AK473" t="s" s="2">
         <v>88</v>
@@ -51767,14 +51839,14 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E474" s="2"/>
       <c r="F474" t="s" s="2">
@@ -51787,24 +51859,26 @@
         <v>73</v>
       </c>
       <c r="I474" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="J474" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="K474" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N474" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O474" s="2"/>
+      <c r="O474" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P474" t="s" s="2">
         <v>73</v>
       </c>
@@ -51840,19 +51914,19 @@
         <v>73</v>
       </c>
       <c r="AB474" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AC474" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AD474" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE474" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="AF474" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG474" t="s" s="2">
         <v>74</v>
@@ -51867,19 +51941,19 @@
         <v>99</v>
       </c>
       <c r="AK474" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E475" s="2"/>
       <c r="F475" t="s" s="2">
@@ -51892,25 +51966,23 @@
         <v>73</v>
       </c>
       <c r="I475" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J475" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K475" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>103</v>
+        <v>446</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N475" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N475" s="2"/>
       <c r="O475" t="s" s="2">
-        <v>105</v>
+        <v>707</v>
       </c>
       <c r="P475" t="s" s="2">
         <v>73</v>
@@ -51959,7 +52031,7 @@
         <v>73</v>
       </c>
       <c r="AF475" t="s" s="2">
-        <v>106</v>
+        <v>706</v>
       </c>
       <c r="AG475" t="s" s="2">
         <v>74</v>
@@ -51971,18 +52043,18 @@
         <v>73</v>
       </c>
       <c r="AJ475" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AK475" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" t="s" s="2">
@@ -52005,18 +52077,16 @@
         <v>73</v>
       </c>
       <c r="K476" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>445</v>
+        <v>709</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>445</v>
+        <v>709</v>
       </c>
       <c r="N476" s="2"/>
-      <c r="O476" t="s" s="2">
-        <v>700</v>
-      </c>
+      <c r="O476" s="2"/>
       <c r="P476" t="s" s="2">
         <v>73</v>
       </c>
@@ -52064,7 +52134,7 @@
         <v>73</v>
       </c>
       <c r="AF476" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="AG476" t="s" s="2">
         <v>74</v>
@@ -52076,7 +52146,7 @@
         <v>73</v>
       </c>
       <c r="AJ476" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AK476" t="s" s="2">
         <v>73</v>
@@ -52084,10 +52154,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" t="s" s="2">
@@ -52098,7 +52168,7 @@
         <v>74</v>
       </c>
       <c r="G477" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H477" t="s" s="2">
         <v>73</v>
@@ -52113,14 +52183,12 @@
         <v>84</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>702</v>
+        <v>85</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="N477" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N477" s="2"/>
       <c r="O477" s="2"/>
       <c r="P477" t="s" s="2">
         <v>73</v>
@@ -52133,7 +52201,7 @@
         <v>73</v>
       </c>
       <c r="T477" t="s" s="2">
-        <v>703</v>
+        <v>73</v>
       </c>
       <c r="U477" t="s" s="2">
         <v>73</v>
@@ -52169,21 +52237,1164 @@
         <v>73</v>
       </c>
       <c r="AF477" t="s" s="2">
-        <v>701</v>
+        <v>87</v>
       </c>
       <c r="AG477" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH477" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI477" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ477" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK477" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B478" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="C478" s="2"/>
+      <c r="D478" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E478" s="2"/>
+      <c r="F478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G478" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AI477" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ477" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK477" t="s" s="2">
+      <c r="H478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K478" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L478" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M478" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N478" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O478" s="2"/>
+      <c r="P478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q478" s="2"/>
+      <c r="R478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB478" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC478" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE478" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF478" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG478" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH478" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI478" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ478" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK478" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="B479" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="C479" s="2"/>
+      <c r="D479" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E479" s="2"/>
+      <c r="F479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I479" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J479" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K479" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L479" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M479" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N479" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O479" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="P479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q479" s="2"/>
+      <c r="R479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF479" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG479" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH479" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ479" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK479" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="B480" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C480" s="2"/>
+      <c r="D480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E480" s="2"/>
+      <c r="F480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K480" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L480" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M480" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N480" s="2"/>
+      <c r="O480" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="P480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q480" s="2"/>
+      <c r="R480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF480" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AG480" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH480" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK480" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B481" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C481" s="2"/>
+      <c r="D481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E481" s="2"/>
+      <c r="F481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K481" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L481" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M481" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N481" s="2"/>
+      <c r="O481" s="2"/>
+      <c r="P481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q481" s="2"/>
+      <c r="R481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF481" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AG481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH481" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ481" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK481" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="B482" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="C482" s="2"/>
+      <c r="D482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E482" s="2"/>
+      <c r="F482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K482" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L482" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M482" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N482" s="2"/>
+      <c r="O482" s="2"/>
+      <c r="P482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q482" s="2"/>
+      <c r="R482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF482" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AG482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH482" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ482" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK482" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="B483" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="C483" s="2"/>
+      <c r="D483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E483" s="2"/>
+      <c r="F483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K483" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L483" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M483" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N483" s="2"/>
+      <c r="O483" s="2"/>
+      <c r="P483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q483" s="2"/>
+      <c r="R483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF483" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AG483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH483" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ483" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK483" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="B484" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="C484" s="2"/>
+      <c r="D484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E484" s="2"/>
+      <c r="F484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K484" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L484" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M484" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N484" s="2"/>
+      <c r="O484" s="2"/>
+      <c r="P484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q484" s="2"/>
+      <c r="R484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF484" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AG484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH484" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ484" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK484" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B485" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="C485" s="2"/>
+      <c r="D485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E485" s="2"/>
+      <c r="F485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K485" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L485" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M485" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N485" s="2"/>
+      <c r="O485" s="2"/>
+      <c r="P485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q485" s="2"/>
+      <c r="R485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF485" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AG485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH485" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ485" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK485" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="B486" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="C486" s="2"/>
+      <c r="D486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E486" s="2"/>
+      <c r="F486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K486" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L486" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M486" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N486" s="2"/>
+      <c r="O486" s="2"/>
+      <c r="P486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q486" s="2"/>
+      <c r="R486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF486" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="AG486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH486" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ486" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK486" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B487" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="C487" s="2"/>
+      <c r="D487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E487" s="2"/>
+      <c r="F487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K487" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L487" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M487" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="N487" s="2"/>
+      <c r="O487" s="2"/>
+      <c r="P487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q487" s="2"/>
+      <c r="R487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF487" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AG487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH487" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ487" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK487" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B488" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="C488" s="2"/>
+      <c r="D488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E488" s="2"/>
+      <c r="F488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G488" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K488" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L488" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M488" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="N488" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O488" s="2"/>
+      <c r="P488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q488" s="2"/>
+      <c r="R488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T488" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="U488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF488" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AG488" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH488" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK488" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:58:58+00:00</t>
+    <t>2023-03-05T16:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:02:38+00:00</t>
+    <t>2023-03-05T16:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17714" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17714" uniqueCount="803">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:12:02+00:00</t>
+    <t>2023-03-06T10:41:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1017,6 +1017,12 @@
   </si>
   <si>
     <t>Local ID of the medication line</t>
+  </si>
+  <si>
+    <t>*Value set*:
+  * vitalinkuri
+  * RSBID
+  * RSWID</t>
   </si>
   <si>
     <t>* S-VALUE= LOCAL
@@ -18513,11 +18519,11 @@
         <v>322</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>73</v>
@@ -18586,10 +18592,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18618,7 +18624,7 @@
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>73</v>
@@ -18667,7 +18673,7 @@
         <v>73</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -18687,10 +18693,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18716,14 +18722,14 @@
         <v>122</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>73</v>
@@ -18772,7 +18778,7 @@
         <v>73</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -18792,10 +18798,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18821,14 +18827,14 @@
         <v>122</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>73</v>
@@ -18877,7 +18883,7 @@
         <v>73</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -18897,10 +18903,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18926,10 +18932,10 @@
         <v>80</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18980,7 +18986,7 @@
         <v>73</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -19000,10 +19006,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -19103,10 +19109,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -19208,10 +19214,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19315,10 +19321,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19398,7 +19404,7 @@
         <v>73</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>74</v>
@@ -19418,10 +19424,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19521,10 +19527,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19626,10 +19632,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19733,10 +19739,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19818,7 +19824,7 @@
         <v>73</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>79</v>
@@ -19838,10 +19844,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19923,7 +19929,7 @@
         <v>73</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>79</v>
@@ -19943,10 +19949,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -20028,7 +20034,7 @@
         <v>73</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>74</v>
@@ -20048,10 +20054,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -20131,7 +20137,7 @@
         <v>73</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>74</v>
@@ -20151,10 +20157,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -20254,10 +20260,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -20359,10 +20365,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20466,10 +20472,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20549,7 +20555,7 @@
         <v>73</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>74</v>
@@ -20569,10 +20575,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20654,7 +20660,7 @@
         <v>73</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>79</v>
@@ -20674,10 +20680,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20759,7 +20765,7 @@
         <v>73</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>74</v>
@@ -20779,10 +20785,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20860,7 +20866,7 @@
         <v>73</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>74</v>
@@ -20880,10 +20886,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20965,7 +20971,7 @@
         <v>73</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>74</v>
@@ -20985,10 +20991,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21068,7 +21074,7 @@
         <v>73</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>74</v>
@@ -21088,10 +21094,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -21171,7 +21177,7 @@
         <v>73</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>79</v>
@@ -21191,10 +21197,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21294,10 +21300,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -21399,10 +21405,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21506,10 +21512,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21591,7 +21597,7 @@
         <v>73</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>74</v>
@@ -21611,10 +21617,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21696,7 +21702,7 @@
         <v>73</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>74</v>
@@ -21716,10 +21722,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21801,7 +21807,7 @@
         <v>73</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>74</v>
@@ -21821,10 +21827,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21906,7 +21912,7 @@
         <v>73</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>79</v>
@@ -21926,10 +21932,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22011,7 +22017,7 @@
         <v>73</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>74</v>
@@ -22031,10 +22037,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22114,7 +22120,7 @@
         <v>73</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>74</v>
@@ -22134,10 +22140,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -22217,7 +22223,7 @@
         <v>73</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>74</v>
@@ -22237,10 +22243,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -22320,7 +22326,7 @@
         <v>73</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>74</v>
@@ -22340,10 +22346,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -22443,10 +22449,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22548,10 +22554,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22655,10 +22661,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22736,7 +22742,7 @@
         <v>73</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
@@ -22756,10 +22762,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22839,7 +22845,7 @@
         <v>73</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>74</v>
@@ -22859,10 +22865,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22942,7 +22948,7 @@
         <v>73</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>74</v>
@@ -22962,10 +22968,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23045,7 +23051,7 @@
         <v>73</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>74</v>
@@ -23065,10 +23071,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -23168,10 +23174,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23273,10 +23279,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23380,10 +23386,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23465,7 +23471,7 @@
         <v>73</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>74</v>
@@ -23485,10 +23491,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23570,7 +23576,7 @@
         <v>73</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>79</v>
@@ -23590,10 +23596,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23673,7 +23679,7 @@
         <v>73</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>74</v>
@@ -23693,10 +23699,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23719,16 +23725,16 @@
         <v>73</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -23778,7 +23784,7 @@
         <v>73</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>79</v>
@@ -23798,10 +23804,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23824,16 +23830,16 @@
         <v>73</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -23883,7 +23889,7 @@
         <v>73</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>79</v>
@@ -23903,10 +23909,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23932,10 +23938,10 @@
         <v>151</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -23986,7 +23992,7 @@
         <v>73</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>74</v>
@@ -24006,10 +24012,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -24035,10 +24041,10 @@
         <v>80</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24089,7 +24095,7 @@
         <v>73</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>74</v>
@@ -24109,10 +24115,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -24212,10 +24218,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -24317,10 +24323,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24424,10 +24430,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24453,16 +24459,16 @@
         <v>151</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>73</v>
@@ -24511,7 +24517,7 @@
         <v>73</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -24531,10 +24537,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24567,7 +24573,7 @@
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>73</v>
@@ -24616,7 +24622,7 @@
         <v>73</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>74</v>
@@ -24636,10 +24642,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24668,7 +24674,7 @@
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>73</v>
@@ -24717,7 +24723,7 @@
         <v>73</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>74</v>
@@ -24737,10 +24743,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24766,14 +24772,14 @@
         <v>122</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>73</v>
@@ -24822,7 +24828,7 @@
         <v>73</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -24842,10 +24848,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24871,14 +24877,14 @@
         <v>122</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>73</v>
@@ -24927,7 +24933,7 @@
         <v>73</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>79</v>
@@ -24947,10 +24953,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24976,10 +24982,10 @@
         <v>80</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -25030,7 +25036,7 @@
         <v>73</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>79</v>
@@ -25050,10 +25056,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25153,10 +25159,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -25258,10 +25264,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -25365,10 +25371,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25448,7 +25454,7 @@
         <v>73</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>74</v>
@@ -25468,10 +25474,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -25571,10 +25577,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25676,10 +25682,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25783,10 +25789,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25868,7 +25874,7 @@
         <v>73</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -25888,10 +25894,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25973,7 +25979,7 @@
         <v>73</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -25993,10 +25999,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26078,7 +26084,7 @@
         <v>73</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>74</v>
@@ -26098,10 +26104,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26181,7 +26187,7 @@
         <v>73</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>74</v>
@@ -26201,10 +26207,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26304,10 +26310,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26409,10 +26415,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26516,10 +26522,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26599,7 +26605,7 @@
         <v>73</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>74</v>
@@ -26619,10 +26625,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26704,7 +26710,7 @@
         <v>73</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>79</v>
@@ -26724,10 +26730,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26809,7 +26815,7 @@
         <v>73</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>74</v>
@@ -26829,10 +26835,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26910,7 +26916,7 @@
         <v>73</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>74</v>
@@ -26930,10 +26936,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -27015,7 +27021,7 @@
         <v>73</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>74</v>
@@ -27035,10 +27041,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -27118,7 +27124,7 @@
         <v>73</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>74</v>
@@ -27138,10 +27144,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -27221,7 +27227,7 @@
         <v>73</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>79</v>
@@ -27241,10 +27247,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27344,10 +27350,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27449,10 +27455,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27556,10 +27562,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27641,7 +27647,7 @@
         <v>73</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>74</v>
@@ -27661,10 +27667,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27746,7 +27752,7 @@
         <v>73</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>74</v>
@@ -27766,10 +27772,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27851,7 +27857,7 @@
         <v>73</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>74</v>
@@ -27871,10 +27877,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27956,7 +27962,7 @@
         <v>73</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>79</v>
@@ -27976,10 +27982,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -28061,7 +28067,7 @@
         <v>73</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>74</v>
@@ -28081,10 +28087,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -28164,7 +28170,7 @@
         <v>73</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>74</v>
@@ -28184,10 +28190,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28267,7 +28273,7 @@
         <v>73</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>74</v>
@@ -28287,10 +28293,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28370,7 +28376,7 @@
         <v>73</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>74</v>
@@ -28390,10 +28396,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28493,10 +28499,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28598,10 +28604,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28705,10 +28711,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28786,7 +28792,7 @@
         <v>73</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>79</v>
@@ -28806,10 +28812,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28889,7 +28895,7 @@
         <v>73</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>74</v>
@@ -28909,10 +28915,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -28992,7 +28998,7 @@
         <v>73</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>74</v>
@@ -29012,10 +29018,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -29095,7 +29101,7 @@
         <v>73</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>74</v>
@@ -29115,10 +29121,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -29218,10 +29224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -29323,10 +29329,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29430,10 +29436,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -29515,7 +29521,7 @@
         <v>73</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>74</v>
@@ -29535,10 +29541,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29620,7 +29626,7 @@
         <v>73</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>79</v>
@@ -29640,10 +29646,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29723,7 +29729,7 @@
         <v>73</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>74</v>
@@ -29743,10 +29749,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29769,16 +29775,16 @@
         <v>73</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O259" s="2"/>
       <c r="P259" t="s" s="2">
@@ -29828,7 +29834,7 @@
         <v>73</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>79</v>
@@ -29848,10 +29854,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -29874,16 +29880,16 @@
         <v>73</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" t="s" s="2">
@@ -29933,7 +29939,7 @@
         <v>73</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>79</v>
@@ -29953,10 +29959,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -29982,10 +29988,10 @@
         <v>80</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
@@ -30036,7 +30042,7 @@
         <v>73</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>74</v>
@@ -30056,10 +30062,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -30159,10 +30165,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -30264,10 +30270,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -30371,10 +30377,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30400,10 +30406,10 @@
         <v>151</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -30454,7 +30460,7 @@
         <v>73</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>74</v>
@@ -30474,10 +30480,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30503,13 +30509,13 @@
         <v>155</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
@@ -30559,7 +30565,7 @@
         <v>73</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>74</v>
@@ -30579,10 +30585,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30608,10 +30614,10 @@
         <v>80</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -30662,7 +30668,7 @@
         <v>73</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>79</v>
@@ -30682,10 +30688,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -30785,10 +30791,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -30890,10 +30896,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -30997,10 +31003,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -31029,7 +31035,7 @@
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P271" t="s" s="2">
         <v>73</v>
@@ -31078,7 +31084,7 @@
         <v>73</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>79</v>
@@ -31098,10 +31104,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -31130,7 +31136,7 @@
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
       <c r="O272" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P272" t="s" s="2">
         <v>73</v>
@@ -31179,7 +31185,7 @@
         <v>73</v>
       </c>
       <c r="AF272" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG272" t="s" s="2">
         <v>74</v>
@@ -31199,10 +31205,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -31228,10 +31234,10 @@
         <v>80</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
@@ -31282,7 +31288,7 @@
         <v>73</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG273" t="s" s="2">
         <v>74</v>
@@ -31302,10 +31308,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -31405,10 +31411,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31510,10 +31516,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -31617,10 +31623,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31649,7 +31655,7 @@
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
       <c r="O277" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P277" t="s" s="2">
         <v>73</v>
@@ -31698,7 +31704,7 @@
         <v>73</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>79</v>
@@ -31718,10 +31724,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -31750,7 +31756,7 @@
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
       <c r="O278" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P278" t="s" s="2">
         <v>73</v>
@@ -31799,7 +31805,7 @@
         <v>73</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>74</v>
@@ -31819,10 +31825,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -31848,10 +31854,10 @@
         <v>80</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -31902,7 +31908,7 @@
         <v>73</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>74</v>
@@ -31922,10 +31928,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -32025,10 +32031,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -32130,10 +32136,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -32237,10 +32243,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -32266,10 +32272,10 @@
         <v>80</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
@@ -32320,7 +32326,7 @@
         <v>73</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>74</v>
@@ -32340,10 +32346,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -32443,10 +32449,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -32548,10 +32554,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -32655,10 +32661,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -32681,13 +32687,13 @@
         <v>73</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -32738,7 +32744,7 @@
         <v>73</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>74</v>
@@ -32758,10 +32764,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -32787,10 +32793,10 @@
         <v>118</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
@@ -32841,7 +32847,7 @@
         <v>73</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>74</v>
@@ -32861,10 +32867,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -32887,13 +32893,13 @@
         <v>73</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -32944,7 +32950,7 @@
         <v>73</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>74</v>
@@ -32964,10 +32970,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -32993,10 +32999,10 @@
         <v>118</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -33047,7 +33053,7 @@
         <v>73</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>74</v>
@@ -33067,10 +33073,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -33096,10 +33102,10 @@
         <v>80</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
@@ -33150,7 +33156,7 @@
         <v>73</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>74</v>
@@ -33170,10 +33176,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -33273,10 +33279,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -33378,10 +33384,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -33485,10 +33491,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33511,13 +33517,13 @@
         <v>73</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
@@ -33532,43 +33538,43 @@
         <v>73</v>
       </c>
       <c r="T295" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="U295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE295" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF295" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="U295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE295" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF295" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>74</v>
@@ -33588,10 +33594,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -33617,16 +33623,16 @@
         <v>118</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O296" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P296" t="s" s="2">
         <v>73</v>
@@ -33675,7 +33681,7 @@
         <v>73</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>74</v>
@@ -33695,10 +33701,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -33721,13 +33727,13 @@
         <v>73</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
@@ -33778,7 +33784,7 @@
         <v>73</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>74</v>
@@ -33798,10 +33804,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -33827,13 +33833,13 @@
         <v>118</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O298" s="2"/>
       <c r="P298" t="s" s="2">
@@ -33883,7 +33889,7 @@
         <v>73</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>74</v>
@@ -33903,10 +33909,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -33932,13 +33938,13 @@
         <v>80</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O299" s="2"/>
       <c r="P299" t="s" s="2">
@@ -33988,7 +33994,7 @@
         <v>73</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>74</v>
@@ -34008,10 +34014,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -34111,10 +34117,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -34216,10 +34222,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -34323,10 +34329,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34349,13 +34355,13 @@
         <v>73</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
@@ -34370,7 +34376,7 @@
         <v>73</v>
       </c>
       <c r="T303" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U303" t="s" s="2">
         <v>73</v>
@@ -34406,7 +34412,7 @@
         <v>73</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>79</v>
@@ -34426,10 +34432,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34455,10 +34461,10 @@
         <v>80</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
@@ -34509,7 +34515,7 @@
         <v>73</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>74</v>
@@ -34529,10 +34535,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34558,10 +34564,10 @@
         <v>155</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -34612,7 +34618,7 @@
         <v>73</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>74</v>
@@ -34632,10 +34638,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -34661,10 +34667,10 @@
         <v>84</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
@@ -34715,7 +34721,7 @@
         <v>73</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>74</v>
@@ -34735,10 +34741,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -34764,14 +34770,14 @@
         <v>84</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P307" t="s" s="2">
         <v>73</v>
@@ -34820,7 +34826,7 @@
         <v>73</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG307" t="s" s="2">
         <v>79</v>
@@ -34840,10 +34846,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -34869,14 +34875,14 @@
         <v>84</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N308" s="2"/>
       <c r="O308" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P308" t="s" s="2">
         <v>73</v>
@@ -34925,7 +34931,7 @@
         <v>73</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>79</v>
@@ -34945,10 +34951,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -34974,10 +34980,10 @@
         <v>80</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
@@ -35028,7 +35034,7 @@
         <v>73</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>74</v>
@@ -35048,10 +35054,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -35151,10 +35157,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -35256,10 +35262,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -35363,10 +35369,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -35392,10 +35398,10 @@
         <v>151</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
@@ -35446,7 +35452,7 @@
         <v>73</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>74</v>
@@ -35466,10 +35472,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -35495,14 +35501,14 @@
         <v>155</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P314" t="s" s="2">
         <v>73</v>
@@ -35551,7 +35557,7 @@
         <v>73</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>74</v>
@@ -35571,10 +35577,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -35650,7 +35656,7 @@
         <v>73</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG315" t="s" s="2">
         <v>74</v>
@@ -35670,10 +35676,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -35773,10 +35779,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -35878,10 +35884,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -35985,10 +35991,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -36014,13 +36020,13 @@
         <v>84</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O319" s="2"/>
       <c r="P319" t="s" s="2">
@@ -36034,7 +36040,7 @@
         <v>73</v>
       </c>
       <c r="T319" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="U319" t="s" s="2">
         <v>73</v>
@@ -36070,7 +36076,7 @@
         <v>73</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG319" t="s" s="2">
         <v>79</v>
@@ -36090,10 +36096,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -36119,10 +36125,10 @@
         <v>80</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -36173,7 +36179,7 @@
         <v>73</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>74</v>
@@ -36193,10 +36199,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -36296,10 +36302,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -36401,10 +36407,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -36508,10 +36514,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -36537,16 +36543,16 @@
         <v>151</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O324" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P324" t="s" s="2">
         <v>73</v>
@@ -36595,7 +36601,7 @@
         <v>73</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>79</v>
@@ -36615,10 +36621,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -36651,7 +36657,7 @@
       </c>
       <c r="N325" s="2"/>
       <c r="O325" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P325" t="s" s="2">
         <v>73</v>
@@ -36700,7 +36706,7 @@
         <v>73</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>74</v>
@@ -36720,10 +36726,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -36752,7 +36758,7 @@
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
       <c r="O326" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P326" t="s" s="2">
         <v>73</v>
@@ -36801,7 +36807,7 @@
         <v>73</v>
       </c>
       <c r="AF326" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG326" t="s" s="2">
         <v>74</v>
@@ -36821,10 +36827,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -36850,14 +36856,14 @@
         <v>122</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P327" t="s" s="2">
         <v>73</v>
@@ -36906,7 +36912,7 @@
         <v>73</v>
       </c>
       <c r="AF327" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG327" t="s" s="2">
         <v>79</v>
@@ -36926,10 +36932,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -36955,14 +36961,14 @@
         <v>122</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>73</v>
@@ -37011,7 +37017,7 @@
         <v>73</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG328" t="s" s="2">
         <v>79</v>
@@ -37031,10 +37037,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -37060,10 +37066,10 @@
         <v>80</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
@@ -37114,7 +37120,7 @@
         <v>73</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG329" t="s" s="2">
         <v>79</v>
@@ -37134,10 +37140,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -37237,10 +37243,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -37342,10 +37348,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -37449,10 +37455,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -37532,7 +37538,7 @@
         <v>73</v>
       </c>
       <c r="AF333" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG333" t="s" s="2">
         <v>74</v>
@@ -37552,10 +37558,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -37655,10 +37661,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -37760,10 +37766,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -37867,10 +37873,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -37952,7 +37958,7 @@
         <v>73</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>79</v>
@@ -37972,10 +37978,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -38057,7 +38063,7 @@
         <v>73</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>79</v>
@@ -38077,10 +38083,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -38162,7 +38168,7 @@
         <v>73</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>74</v>
@@ -38182,10 +38188,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -38265,7 +38271,7 @@
         <v>73</v>
       </c>
       <c r="AF340" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG340" t="s" s="2">
         <v>74</v>
@@ -38285,10 +38291,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -38388,10 +38394,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -38493,10 +38499,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -38600,10 +38606,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -38683,7 +38689,7 @@
         <v>73</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>74</v>
@@ -38703,10 +38709,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -38788,7 +38794,7 @@
         <v>73</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG345" t="s" s="2">
         <v>79</v>
@@ -38808,10 +38814,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
@@ -38893,7 +38899,7 @@
         <v>73</v>
       </c>
       <c r="AF346" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG346" t="s" s="2">
         <v>74</v>
@@ -38913,10 +38919,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -38994,7 +39000,7 @@
         <v>73</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>74</v>
@@ -39014,10 +39020,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" t="s" s="2">
@@ -39099,7 +39105,7 @@
         <v>73</v>
       </c>
       <c r="AF348" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG348" t="s" s="2">
         <v>74</v>
@@ -39119,10 +39125,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" t="s" s="2">
@@ -39202,7 +39208,7 @@
         <v>73</v>
       </c>
       <c r="AF349" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG349" t="s" s="2">
         <v>74</v>
@@ -39222,10 +39228,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
@@ -39305,7 +39311,7 @@
         <v>73</v>
       </c>
       <c r="AF350" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG350" t="s" s="2">
         <v>79</v>
@@ -39325,10 +39331,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
@@ -39428,10 +39434,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -39533,10 +39539,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" t="s" s="2">
@@ -39640,10 +39646,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" t="s" s="2">
@@ -39725,7 +39731,7 @@
         <v>73</v>
       </c>
       <c r="AF354" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG354" t="s" s="2">
         <v>74</v>
@@ -39745,10 +39751,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s" s="2">
@@ -39830,7 +39836,7 @@
         <v>73</v>
       </c>
       <c r="AF355" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG355" t="s" s="2">
         <v>74</v>
@@ -39850,10 +39856,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s" s="2">
@@ -39935,7 +39941,7 @@
         <v>73</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>74</v>
@@ -39955,10 +39961,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" t="s" s="2">
@@ -40040,7 +40046,7 @@
         <v>73</v>
       </c>
       <c r="AF357" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG357" t="s" s="2">
         <v>79</v>
@@ -40060,10 +40066,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" t="s" s="2">
@@ -40145,7 +40151,7 @@
         <v>73</v>
       </c>
       <c r="AF358" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG358" t="s" s="2">
         <v>74</v>
@@ -40165,10 +40171,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
@@ -40248,7 +40254,7 @@
         <v>73</v>
       </c>
       <c r="AF359" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG359" t="s" s="2">
         <v>74</v>
@@ -40268,10 +40274,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" t="s" s="2">
@@ -40351,7 +40357,7 @@
         <v>73</v>
       </c>
       <c r="AF360" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG360" t="s" s="2">
         <v>74</v>
@@ -40371,10 +40377,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" t="s" s="2">
@@ -40454,7 +40460,7 @@
         <v>73</v>
       </c>
       <c r="AF361" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG361" t="s" s="2">
         <v>74</v>
@@ -40474,10 +40480,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" t="s" s="2">
@@ -40577,10 +40583,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" t="s" s="2">
@@ -40682,10 +40688,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" t="s" s="2">
@@ -40789,10 +40795,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" t="s" s="2">
@@ -40870,7 +40876,7 @@
         <v>73</v>
       </c>
       <c r="AF365" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG365" t="s" s="2">
         <v>79</v>
@@ -40890,10 +40896,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" t="s" s="2">
@@ -40973,7 +40979,7 @@
         <v>73</v>
       </c>
       <c r="AF366" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG366" t="s" s="2">
         <v>74</v>
@@ -40993,10 +40999,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" t="s" s="2">
@@ -41076,7 +41082,7 @@
         <v>73</v>
       </c>
       <c r="AF367" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG367" t="s" s="2">
         <v>74</v>
@@ -41096,10 +41102,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" t="s" s="2">
@@ -41179,7 +41185,7 @@
         <v>73</v>
       </c>
       <c r="AF368" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG368" t="s" s="2">
         <v>74</v>
@@ -41199,10 +41205,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" t="s" s="2">
@@ -41302,10 +41308,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" t="s" s="2">
@@ -41407,10 +41413,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" t="s" s="2">
@@ -41514,10 +41520,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" t="s" s="2">
@@ -41599,7 +41605,7 @@
         <v>73</v>
       </c>
       <c r="AF372" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG372" t="s" s="2">
         <v>74</v>
@@ -41619,10 +41625,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" t="s" s="2">
@@ -41704,7 +41710,7 @@
         <v>73</v>
       </c>
       <c r="AF373" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG373" t="s" s="2">
         <v>79</v>
@@ -41724,10 +41730,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" t="s" s="2">
@@ -41807,7 +41813,7 @@
         <v>73</v>
       </c>
       <c r="AF374" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG374" t="s" s="2">
         <v>74</v>
@@ -41827,10 +41833,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
@@ -41853,16 +41859,16 @@
         <v>73</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
@@ -41912,7 +41918,7 @@
         <v>73</v>
       </c>
       <c r="AF375" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG375" t="s" s="2">
         <v>79</v>
@@ -41932,10 +41938,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" t="s" s="2">
@@ -41958,16 +41964,16 @@
         <v>73</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O376" s="2"/>
       <c r="P376" t="s" s="2">
@@ -42017,7 +42023,7 @@
         <v>73</v>
       </c>
       <c r="AF376" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG376" t="s" s="2">
         <v>79</v>
@@ -42037,10 +42043,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" t="s" s="2">
@@ -42066,10 +42072,10 @@
         <v>84</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N377" s="2"/>
       <c r="O377" s="2"/>
@@ -42120,7 +42126,7 @@
         <v>73</v>
       </c>
       <c r="AF377" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG377" t="s" s="2">
         <v>74</v>
@@ -42140,10 +42146,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" t="s" s="2">
@@ -42169,10 +42175,10 @@
         <v>80</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N378" s="2"/>
       <c r="O378" s="2"/>
@@ -42223,7 +42229,7 @@
         <v>73</v>
       </c>
       <c r="AF378" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG378" t="s" s="2">
         <v>74</v>
@@ -42243,10 +42249,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" t="s" s="2">
@@ -42346,10 +42352,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" t="s" s="2">
@@ -42451,10 +42457,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" t="s" s="2">
@@ -42558,10 +42564,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" t="s" s="2">
@@ -42587,10 +42593,10 @@
         <v>151</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N382" s="2"/>
       <c r="O382" s="2"/>
@@ -42641,7 +42647,7 @@
         <v>73</v>
       </c>
       <c r="AF382" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG382" t="s" s="2">
         <v>74</v>
@@ -42661,10 +42667,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
@@ -42690,14 +42696,14 @@
         <v>155</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N383" s="2"/>
       <c r="O383" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P383" t="s" s="2">
         <v>73</v>
@@ -42746,7 +42752,7 @@
         <v>73</v>
       </c>
       <c r="AF383" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG383" t="s" s="2">
         <v>74</v>
@@ -42766,10 +42772,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" t="s" s="2">
@@ -42845,7 +42851,7 @@
         <v>73</v>
       </c>
       <c r="AF384" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG384" t="s" s="2">
         <v>79</v>
@@ -42865,10 +42871,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" t="s" s="2">
@@ -42968,10 +42974,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" t="s" s="2">
@@ -43073,10 +43079,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" t="s" s="2">
@@ -43180,10 +43186,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" t="s" s="2">
@@ -43212,7 +43218,7 @@
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
       <c r="O388" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P388" t="s" s="2">
         <v>73</v>
@@ -43261,7 +43267,7 @@
         <v>73</v>
       </c>
       <c r="AF388" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG388" t="s" s="2">
         <v>74</v>
@@ -43281,10 +43287,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" t="s" s="2">
@@ -43360,7 +43366,7 @@
         <v>73</v>
       </c>
       <c r="AF389" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG389" t="s" s="2">
         <v>74</v>
@@ -43380,10 +43386,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" t="s" s="2">
@@ -43483,10 +43489,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" t="s" s="2">
@@ -43588,10 +43594,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" t="s" s="2">
@@ -43695,10 +43701,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" t="s" s="2">
@@ -43724,13 +43730,13 @@
         <v>84</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O393" s="2"/>
       <c r="P393" t="s" s="2">
@@ -43744,43 +43750,43 @@
         <v>73</v>
       </c>
       <c r="T393" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF393" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="U393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE393" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF393" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="AG393" t="s" s="2">
         <v>79</v>
@@ -43800,10 +43806,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" t="s" s="2">
@@ -43829,10 +43835,10 @@
         <v>80</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
@@ -43883,7 +43889,7 @@
         <v>73</v>
       </c>
       <c r="AF394" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG394" t="s" s="2">
         <v>74</v>
@@ -43903,10 +43909,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" t="s" s="2">
@@ -44006,10 +44012,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" t="s" s="2">
@@ -44111,10 +44117,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" t="s" s="2">
@@ -44218,10 +44224,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" t="s" s="2">
@@ -44247,10 +44253,10 @@
         <v>151</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
@@ -44301,7 +44307,7 @@
         <v>73</v>
       </c>
       <c r="AF398" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG398" t="s" s="2">
         <v>74</v>
@@ -44321,10 +44327,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" t="s" s="2">
@@ -44350,14 +44356,14 @@
         <v>155</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N399" s="2"/>
       <c r="O399" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P399" t="s" s="2">
         <v>73</v>
@@ -44406,7 +44412,7 @@
         <v>73</v>
       </c>
       <c r="AF399" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG399" t="s" s="2">
         <v>74</v>
@@ -44426,10 +44432,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" t="s" s="2">
@@ -44505,7 +44511,7 @@
         <v>73</v>
       </c>
       <c r="AF400" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG400" t="s" s="2">
         <v>79</v>
@@ -44525,10 +44531,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" t="s" s="2">
@@ -44628,10 +44634,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" t="s" s="2">
@@ -44733,10 +44739,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" t="s" s="2">
@@ -44840,10 +44846,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" t="s" s="2">
@@ -44872,7 +44878,7 @@
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
       <c r="O404" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P404" t="s" s="2">
         <v>73</v>
@@ -44921,7 +44927,7 @@
         <v>73</v>
       </c>
       <c r="AF404" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG404" t="s" s="2">
         <v>74</v>
@@ -44941,10 +44947,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" t="s" s="2">
@@ -45020,7 +45026,7 @@
         <v>73</v>
       </c>
       <c r="AF405" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG405" t="s" s="2">
         <v>74</v>
@@ -45040,10 +45046,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" t="s" s="2">
@@ -45143,10 +45149,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
@@ -45248,10 +45254,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" t="s" s="2">
@@ -45355,10 +45361,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" t="s" s="2">
@@ -45384,13 +45390,13 @@
         <v>84</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O409" s="2"/>
       <c r="P409" t="s" s="2">
@@ -45404,7 +45410,7 @@
         <v>73</v>
       </c>
       <c r="T409" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="U409" t="s" s="2">
         <v>73</v>
@@ -45440,7 +45446,7 @@
         <v>73</v>
       </c>
       <c r="AF409" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG409" t="s" s="2">
         <v>79</v>
@@ -45460,10 +45466,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" t="s" s="2">
@@ -45489,10 +45495,10 @@
         <v>80</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N410" s="2"/>
       <c r="O410" s="2"/>
@@ -45543,7 +45549,7 @@
         <v>73</v>
       </c>
       <c r="AF410" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG410" t="s" s="2">
         <v>74</v>
@@ -45563,10 +45569,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" t="s" s="2">
@@ -45666,10 +45672,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" t="s" s="2">
@@ -45771,10 +45777,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" t="s" s="2">
@@ -45878,10 +45884,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" t="s" s="2">
@@ -45907,10 +45913,10 @@
         <v>151</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N414" s="2"/>
       <c r="O414" s="2"/>
@@ -45961,7 +45967,7 @@
         <v>73</v>
       </c>
       <c r="AF414" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG414" t="s" s="2">
         <v>74</v>
@@ -45981,10 +45987,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" t="s" s="2">
@@ -46010,14 +46016,14 @@
         <v>155</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N415" s="2"/>
       <c r="O415" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P415" t="s" s="2">
         <v>73</v>
@@ -46066,7 +46072,7 @@
         <v>73</v>
       </c>
       <c r="AF415" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG415" t="s" s="2">
         <v>74</v>
@@ -46086,10 +46092,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" t="s" s="2">
@@ -46165,7 +46171,7 @@
         <v>73</v>
       </c>
       <c r="AF416" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG416" t="s" s="2">
         <v>79</v>
@@ -46185,10 +46191,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" t="s" s="2">
@@ -46288,10 +46294,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" t="s" s="2">
@@ -46393,10 +46399,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" t="s" s="2">
@@ -46500,10 +46506,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" t="s" s="2">
@@ -46532,7 +46538,7 @@
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
       <c r="O420" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P420" t="s" s="2">
         <v>73</v>
@@ -46581,7 +46587,7 @@
         <v>73</v>
       </c>
       <c r="AF420" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG420" t="s" s="2">
         <v>74</v>
@@ -46601,10 +46607,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" t="s" s="2">
@@ -46680,7 +46686,7 @@
         <v>73</v>
       </c>
       <c r="AF421" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG421" t="s" s="2">
         <v>74</v>
@@ -46700,10 +46706,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" t="s" s="2">
@@ -46803,10 +46809,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" t="s" s="2">
@@ -46908,10 +46914,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" t="s" s="2">
@@ -47015,10 +47021,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" t="s" s="2">
@@ -47044,13 +47050,13 @@
         <v>84</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O425" s="2"/>
       <c r="P425" t="s" s="2">
@@ -47064,7 +47070,7 @@
         <v>73</v>
       </c>
       <c r="T425" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="U425" t="s" s="2">
         <v>73</v>
@@ -47100,7 +47106,7 @@
         <v>73</v>
       </c>
       <c r="AF425" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG425" t="s" s="2">
         <v>79</v>
@@ -47120,10 +47126,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" t="s" s="2">
@@ -47149,10 +47155,10 @@
         <v>80</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N426" s="2"/>
       <c r="O426" s="2"/>
@@ -47203,7 +47209,7 @@
         <v>73</v>
       </c>
       <c r="AF426" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG426" t="s" s="2">
         <v>74</v>
@@ -47223,10 +47229,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" t="s" s="2">
@@ -47252,10 +47258,10 @@
         <v>80</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
@@ -47306,7 +47312,7 @@
         <v>73</v>
       </c>
       <c r="AF427" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG427" t="s" s="2">
         <v>74</v>
@@ -47326,10 +47332,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" t="s" s="2">
@@ -47355,10 +47361,10 @@
         <v>80</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N428" s="2"/>
       <c r="O428" s="2"/>
@@ -47409,7 +47415,7 @@
         <v>73</v>
       </c>
       <c r="AF428" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG428" t="s" s="2">
         <v>74</v>
@@ -47429,10 +47435,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" t="s" s="2">
@@ -47458,10 +47464,10 @@
         <v>80</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
@@ -47512,7 +47518,7 @@
         <v>73</v>
       </c>
       <c r="AF429" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG429" t="s" s="2">
         <v>74</v>
@@ -47532,10 +47538,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" t="s" s="2">
@@ -47635,10 +47641,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" t="s" s="2">
@@ -47740,10 +47746,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" t="s" s="2">
@@ -47847,10 +47853,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" t="s" s="2">
@@ -47876,10 +47882,10 @@
         <v>151</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N433" s="2"/>
       <c r="O433" s="2"/>
@@ -47930,7 +47936,7 @@
         <v>73</v>
       </c>
       <c r="AF433" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG433" t="s" s="2">
         <v>74</v>
@@ -47950,10 +47956,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" t="s" s="2">
@@ -47979,13 +47985,13 @@
         <v>155</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O434" s="2"/>
       <c r="P434" t="s" s="2">
@@ -48035,7 +48041,7 @@
         <v>73</v>
       </c>
       <c r="AF434" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG434" t="s" s="2">
         <v>74</v>
@@ -48055,10 +48061,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" t="s" s="2">
@@ -48084,10 +48090,10 @@
         <v>80</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
@@ -48138,7 +48144,7 @@
         <v>73</v>
       </c>
       <c r="AF435" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG435" t="s" s="2">
         <v>79</v>
@@ -48158,10 +48164,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" t="s" s="2">
@@ -48261,10 +48267,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" t="s" s="2">
@@ -48366,10 +48372,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" t="s" s="2">
@@ -48473,10 +48479,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
@@ -48505,7 +48511,7 @@
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
       <c r="O439" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P439" t="s" s="2">
         <v>73</v>
@@ -48554,7 +48560,7 @@
         <v>73</v>
       </c>
       <c r="AF439" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG439" t="s" s="2">
         <v>79</v>
@@ -48574,10 +48580,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" t="s" s="2">
@@ -48606,7 +48612,7 @@
       <c r="M440" s="2"/>
       <c r="N440" s="2"/>
       <c r="O440" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P440" t="s" s="2">
         <v>73</v>
@@ -48655,7 +48661,7 @@
         <v>73</v>
       </c>
       <c r="AF440" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG440" t="s" s="2">
         <v>74</v>
@@ -48675,10 +48681,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" t="s" s="2">
@@ -48704,10 +48710,10 @@
         <v>80</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
@@ -48758,7 +48764,7 @@
         <v>73</v>
       </c>
       <c r="AF441" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG441" t="s" s="2">
         <v>74</v>
@@ -48778,10 +48784,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" t="s" s="2">
@@ -48881,10 +48887,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" t="s" s="2">
@@ -48986,10 +48992,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" t="s" s="2">
@@ -49093,10 +49099,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" t="s" s="2">
@@ -49125,7 +49131,7 @@
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
       <c r="O445" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P445" t="s" s="2">
         <v>73</v>
@@ -49174,7 +49180,7 @@
         <v>73</v>
       </c>
       <c r="AF445" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG445" t="s" s="2">
         <v>79</v>
@@ -49194,10 +49200,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" t="s" s="2">
@@ -49226,7 +49232,7 @@
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
       <c r="O446" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P446" t="s" s="2">
         <v>73</v>
@@ -49275,7 +49281,7 @@
         <v>73</v>
       </c>
       <c r="AF446" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AG446" t="s" s="2">
         <v>74</v>
@@ -49295,10 +49301,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" t="s" s="2">
@@ -49324,14 +49330,14 @@
         <v>151</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N447" s="2"/>
       <c r="O447" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P447" t="s" s="2">
         <v>73</v>
@@ -49380,7 +49386,7 @@
         <v>73</v>
       </c>
       <c r="AF447" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AG447" t="s" s="2">
         <v>74</v>
@@ -49400,10 +49406,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" t="s" s="2">
@@ -49429,10 +49435,10 @@
         <v>80</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
@@ -49483,7 +49489,7 @@
         <v>73</v>
       </c>
       <c r="AF448" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG448" t="s" s="2">
         <v>74</v>
@@ -49503,10 +49509,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" t="s" s="2">
@@ -49606,10 +49612,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" t="s" s="2">
@@ -49711,10 +49717,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" t="s" s="2">
@@ -49818,10 +49824,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" t="s" s="2">
@@ -49847,10 +49853,10 @@
         <v>80</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
@@ -49901,7 +49907,7 @@
         <v>73</v>
       </c>
       <c r="AF452" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG452" t="s" s="2">
         <v>74</v>
@@ -49921,10 +49927,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" t="s" s="2">
@@ -50024,10 +50030,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" t="s" s="2">
@@ -50129,10 +50135,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s" s="2">
@@ -50236,10 +50242,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" t="s" s="2">
@@ -50262,13 +50268,13 @@
         <v>73</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N456" s="2"/>
       <c r="O456" s="2"/>
@@ -50319,7 +50325,7 @@
         <v>73</v>
       </c>
       <c r="AF456" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG456" t="s" s="2">
         <v>74</v>
@@ -50339,10 +50345,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" t="s" s="2">
@@ -50368,10 +50374,10 @@
         <v>118</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
@@ -50422,7 +50428,7 @@
         <v>73</v>
       </c>
       <c r="AF457" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG457" t="s" s="2">
         <v>74</v>
@@ -50442,10 +50448,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" t="s" s="2">
@@ -50468,13 +50474,13 @@
         <v>73</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N458" s="2"/>
       <c r="O458" s="2"/>
@@ -50525,7 +50531,7 @@
         <v>73</v>
       </c>
       <c r="AF458" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG458" t="s" s="2">
         <v>74</v>
@@ -50545,10 +50551,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" t="s" s="2">
@@ -50574,10 +50580,10 @@
         <v>118</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N459" s="2"/>
       <c r="O459" s="2"/>
@@ -50628,7 +50634,7 @@
         <v>73</v>
       </c>
       <c r="AF459" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG459" t="s" s="2">
         <v>74</v>
@@ -50648,10 +50654,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" t="s" s="2">
@@ -50677,10 +50683,10 @@
         <v>80</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M460" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N460" s="2"/>
       <c r="O460" s="2"/>
@@ -50731,7 +50737,7 @@
         <v>73</v>
       </c>
       <c r="AF460" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AG460" t="s" s="2">
         <v>74</v>
@@ -50751,10 +50757,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" t="s" s="2">
@@ -50854,10 +50860,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" t="s" s="2">
@@ -50959,10 +50965,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" t="s" s="2">
@@ -51066,10 +51072,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" t="s" s="2">
@@ -51092,13 +51098,13 @@
         <v>73</v>
       </c>
       <c r="K464" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N464" s="2"/>
       <c r="O464" s="2"/>
@@ -51113,7 +51119,7 @@
         <v>73</v>
       </c>
       <c r="T464" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="U464" t="s" s="2">
         <v>73</v>
@@ -51149,7 +51155,7 @@
         <v>73</v>
       </c>
       <c r="AF464" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AG464" t="s" s="2">
         <v>74</v>
@@ -51169,10 +51175,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" t="s" s="2">
@@ -51198,16 +51204,16 @@
         <v>118</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O465" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P465" t="s" s="2">
         <v>73</v>
@@ -51256,7 +51262,7 @@
         <v>73</v>
       </c>
       <c r="AF465" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG465" t="s" s="2">
         <v>74</v>
@@ -51276,10 +51282,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" t="s" s="2">
@@ -51302,13 +51308,13 @@
         <v>73</v>
       </c>
       <c r="K466" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
@@ -51359,7 +51365,7 @@
         <v>73</v>
       </c>
       <c r="AF466" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG466" t="s" s="2">
         <v>74</v>
@@ -51379,10 +51385,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" t="s" s="2">
@@ -51408,13 +51414,13 @@
         <v>118</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N467" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O467" s="2"/>
       <c r="P467" t="s" s="2">
@@ -51464,7 +51470,7 @@
         <v>73</v>
       </c>
       <c r="AF467" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AG467" t="s" s="2">
         <v>74</v>
@@ -51484,10 +51490,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" t="s" s="2">
@@ -51513,13 +51519,13 @@
         <v>80</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M468" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N468" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O468" s="2"/>
       <c r="P468" t="s" s="2">
@@ -51569,7 +51575,7 @@
         <v>73</v>
       </c>
       <c r="AF468" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AG468" t="s" s="2">
         <v>74</v>
@@ -51589,10 +51595,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" t="s" s="2">
@@ -51692,10 +51698,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" t="s" s="2">
@@ -51797,10 +51803,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s" s="2">
@@ -51904,10 +51910,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" t="s" s="2">
@@ -51930,13 +51936,13 @@
         <v>73</v>
       </c>
       <c r="K472" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M472" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
@@ -51951,7 +51957,7 @@
         <v>73</v>
       </c>
       <c r="T472" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U472" t="s" s="2">
         <v>73</v>
@@ -51987,7 +51993,7 @@
         <v>73</v>
       </c>
       <c r="AF472" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG472" t="s" s="2">
         <v>79</v>
@@ -52007,10 +52013,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" t="s" s="2">
@@ -52036,10 +52042,10 @@
         <v>80</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N473" s="2"/>
       <c r="O473" s="2"/>
@@ -52090,7 +52096,7 @@
         <v>73</v>
       </c>
       <c r="AF473" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AG473" t="s" s="2">
         <v>74</v>
@@ -52110,10 +52116,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" t="s" s="2">
@@ -52139,10 +52145,10 @@
         <v>155</v>
       </c>
       <c r="L474" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
@@ -52193,7 +52199,7 @@
         <v>73</v>
       </c>
       <c r="AF474" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AG474" t="s" s="2">
         <v>74</v>
@@ -52213,10 +52219,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" t="s" s="2">
@@ -52242,14 +52248,14 @@
         <v>84</v>
       </c>
       <c r="L475" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N475" s="2"/>
       <c r="O475" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P475" t="s" s="2">
         <v>73</v>
@@ -52298,7 +52304,7 @@
         <v>73</v>
       </c>
       <c r="AF475" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG475" t="s" s="2">
         <v>74</v>
@@ -52318,10 +52324,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" t="s" s="2">
@@ -52347,13 +52353,13 @@
         <v>84</v>
       </c>
       <c r="L476" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" t="s" s="2">
@@ -52367,7 +52373,7 @@
         <v>73</v>
       </c>
       <c r="T476" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="U476" t="s" s="2">
         <v>73</v>
@@ -52403,7 +52409,7 @@
         <v>73</v>
       </c>
       <c r="AF476" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AG476" t="s" s="2">
         <v>74</v>
@@ -52423,10 +52429,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" t="s" s="2">
@@ -52452,14 +52458,14 @@
         <v>80</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N477" s="2"/>
       <c r="O477" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P477" t="s" s="2">
         <v>73</v>
@@ -52508,7 +52514,7 @@
         <v>73</v>
       </c>
       <c r="AF477" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG477" t="s" s="2">
         <v>74</v>
@@ -52528,10 +52534,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" t="s" s="2">
@@ -52631,10 +52637,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" t="s" s="2">
@@ -52736,10 +52742,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" t="s" s="2">
@@ -52843,10 +52849,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" t="s" s="2">
@@ -52922,7 +52928,7 @@
         <v>73</v>
       </c>
       <c r="AF481" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG481" t="s" s="2">
         <v>74</v>
@@ -52942,10 +52948,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" t="s" s="2">
@@ -52971,10 +52977,10 @@
         <v>80</v>
       </c>
       <c r="L482" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N482" s="2"/>
       <c r="O482" s="2"/>
@@ -53025,7 +53031,7 @@
         <v>73</v>
       </c>
       <c r="AF482" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG482" t="s" s="2">
         <v>74</v>
@@ -53045,10 +53051,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" t="s" s="2">
@@ -53148,10 +53154,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" t="s" s="2">
@@ -53253,10 +53259,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" t="s" s="2">
@@ -53360,10 +53366,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" t="s" s="2">
@@ -53389,10 +53395,10 @@
         <v>80</v>
       </c>
       <c r="L486" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M486" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N486" s="2"/>
       <c r="O486" s="2"/>
@@ -53443,7 +53449,7 @@
         <v>73</v>
       </c>
       <c r="AF486" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AG486" t="s" s="2">
         <v>74</v>
@@ -53463,10 +53469,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" t="s" s="2">
@@ -53566,10 +53572,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" t="s" s="2">
@@ -53671,10 +53677,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" t="s" s="2">
@@ -53778,10 +53784,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" t="s" s="2">
@@ -53807,14 +53813,14 @@
         <v>155</v>
       </c>
       <c r="L490" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N490" s="2"/>
       <c r="O490" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P490" t="s" s="2">
         <v>73</v>
@@ -53863,7 +53869,7 @@
         <v>73</v>
       </c>
       <c r="AF490" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG490" t="s" s="2">
         <v>74</v>
@@ -53883,10 +53889,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" t="s" s="2">
@@ -53912,10 +53918,10 @@
         <v>80</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M491" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N491" s="2"/>
       <c r="O491" s="2"/>
@@ -53966,7 +53972,7 @@
         <v>73</v>
       </c>
       <c r="AF491" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AG491" t="s" s="2">
         <v>74</v>
@@ -53986,10 +53992,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" t="s" s="2">
@@ -54089,10 +54095,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" t="s" s="2">
@@ -54194,10 +54200,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" t="s" s="2">
@@ -54301,10 +54307,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" t="s" s="2">
@@ -54330,13 +54336,13 @@
         <v>84</v>
       </c>
       <c r="L495" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M495" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N495" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O495" s="2"/>
       <c r="P495" t="s" s="2">
@@ -54350,7 +54356,7 @@
         <v>73</v>
       </c>
       <c r="T495" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="U495" t="s" s="2">
         <v>73</v>
@@ -54386,7 +54392,7 @@
         <v>73</v>
       </c>
       <c r="AF495" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG495" t="s" s="2">
         <v>79</v>
@@ -54406,10 +54412,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" t="s" s="2">
@@ -54435,10 +54441,10 @@
         <v>155</v>
       </c>
       <c r="L496" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N496" s="2"/>
       <c r="O496" s="2"/>
@@ -54489,7 +54495,7 @@
         <v>73</v>
       </c>
       <c r="AF496" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AG496" t="s" s="2">
         <v>74</v>
@@ -54509,10 +54515,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" t="s" s="2">
@@ -54538,10 +54544,10 @@
         <v>155</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
@@ -54592,7 +54598,7 @@
         <v>73</v>
       </c>
       <c r="AF497" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AG497" t="s" s="2">
         <v>74</v>
@@ -54612,10 +54618,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" t="s" s="2">
@@ -54641,10 +54647,10 @@
         <v>155</v>
       </c>
       <c r="L498" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N498" s="2"/>
       <c r="O498" s="2"/>
@@ -54695,7 +54701,7 @@
         <v>73</v>
       </c>
       <c r="AF498" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG498" t="s" s="2">
         <v>74</v>
@@ -54715,10 +54721,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" t="s" s="2">
@@ -54744,10 +54750,10 @@
         <v>155</v>
       </c>
       <c r="L499" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M499" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N499" s="2"/>
       <c r="O499" s="2"/>
@@ -54798,7 +54804,7 @@
         <v>73</v>
       </c>
       <c r="AF499" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AG499" t="s" s="2">
         <v>74</v>
@@ -54818,10 +54824,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" t="s" s="2">
@@ -54847,10 +54853,10 @@
         <v>80</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M500" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N500" s="2"/>
       <c r="O500" s="2"/>
@@ -54901,7 +54907,7 @@
         <v>73</v>
       </c>
       <c r="AF500" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG500" t="s" s="2">
         <v>74</v>
@@ -54921,10 +54927,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" t="s" s="2">
@@ -55024,10 +55030,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" t="s" s="2">
@@ -55129,10 +55135,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" t="s" s="2">
@@ -55236,10 +55242,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" t="s" s="2">
@@ -55265,13 +55271,13 @@
         <v>122</v>
       </c>
       <c r="L504" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M504" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N504" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O504" s="2"/>
       <c r="P504" t="s" s="2">
@@ -55321,7 +55327,7 @@
         <v>73</v>
       </c>
       <c r="AF504" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AG504" t="s" s="2">
         <v>74</v>
@@ -55341,10 +55347,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" t="s" s="2">
@@ -55370,10 +55376,10 @@
         <v>151</v>
       </c>
       <c r="L505" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M505" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N505" s="2"/>
       <c r="O505" s="2"/>
@@ -55424,7 +55430,7 @@
         <v>73</v>
       </c>
       <c r="AF505" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AG505" t="s" s="2">
         <v>74</v>
@@ -55444,10 +55450,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" t="s" s="2">
@@ -55547,10 +55553,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" t="s" s="2">
@@ -55652,10 +55658,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" t="s" s="2">
@@ -55681,7 +55687,7 @@
         <v>151</v>
       </c>
       <c r="L508" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M508" t="s" s="2">
         <v>302</v>
@@ -55702,10 +55708,10 @@
         <v>73</v>
       </c>
       <c r="U508" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V508" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="W508" t="s" s="2">
         <v>73</v>
@@ -55735,7 +55741,7 @@
         <v>73</v>
       </c>
       <c r="AF508" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG508" t="s" s="2">
         <v>74</v>
@@ -55755,10 +55761,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" t="s" s="2">
@@ -55784,13 +55790,13 @@
         <v>84</v>
       </c>
       <c r="L509" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M509" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N509" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O509" s="2"/>
       <c r="P509" t="s" s="2">
@@ -55804,7 +55810,7 @@
         <v>73</v>
       </c>
       <c r="T509" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="U509" t="s" s="2">
         <v>73</v>
@@ -55840,7 +55846,7 @@
         <v>73</v>
       </c>
       <c r="AF509" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AG509" t="s" s="2">
         <v>79</v>
@@ -55860,10 +55866,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" t="s" s="2">
@@ -55889,10 +55895,10 @@
         <v>151</v>
       </c>
       <c r="L510" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M510" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N510" s="2"/>
       <c r="O510" s="2"/>
@@ -55943,7 +55949,7 @@
         <v>73</v>
       </c>
       <c r="AF510" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG510" t="s" s="2">
         <v>74</v>
@@ -55963,10 +55969,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" t="s" s="2">
@@ -55992,10 +55998,10 @@
         <v>80</v>
       </c>
       <c r="L511" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M511" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
@@ -56046,7 +56052,7 @@
         <v>73</v>
       </c>
       <c r="AF511" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AG511" t="s" s="2">
         <v>74</v>
@@ -56066,10 +56072,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" t="s" s="2">
@@ -56169,10 +56175,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" t="s" s="2">
@@ -56274,10 +56280,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" t="s" s="2">
@@ -56381,10 +56387,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" t="s" s="2">
@@ -56410,14 +56416,14 @@
         <v>122</v>
       </c>
       <c r="L515" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M515" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N515" s="2"/>
       <c r="O515" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P515" t="s" s="2">
         <v>73</v>
@@ -56466,7 +56472,7 @@
         <v>73</v>
       </c>
       <c r="AF515" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG515" t="s" s="2">
         <v>79</v>
@@ -56486,10 +56492,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" t="s" s="2">
@@ -56515,10 +56521,10 @@
         <v>80</v>
       </c>
       <c r="L516" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M516" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N516" s="2"/>
       <c r="O516" s="2"/>
@@ -56569,7 +56575,7 @@
         <v>73</v>
       </c>
       <c r="AF516" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG516" t="s" s="2">
         <v>79</v>
@@ -56589,10 +56595,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" t="s" s="2">
@@ -56692,10 +56698,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" t="s" s="2">
@@ -56797,10 +56803,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" t="s" s="2">
@@ -56904,10 +56910,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" t="s" s="2">
@@ -56936,7 +56942,7 @@
       <c r="M520" s="2"/>
       <c r="N520" s="2"/>
       <c r="O520" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P520" t="s" s="2">
         <v>73</v>
@@ -56985,7 +56991,7 @@
         <v>73</v>
       </c>
       <c r="AF520" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AG520" t="s" s="2">
         <v>74</v>
@@ -57005,10 +57011,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" t="s" s="2">
@@ -57034,10 +57040,10 @@
         <v>80</v>
       </c>
       <c r="L521" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M521" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N521" s="2"/>
       <c r="O521" s="2"/>
@@ -57088,7 +57094,7 @@
         <v>73</v>
       </c>
       <c r="AF521" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AG521" t="s" s="2">
         <v>79</v>
@@ -57108,10 +57114,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" t="s" s="2">
@@ -57211,10 +57217,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" t="s" s="2">
@@ -57316,10 +57322,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" t="s" s="2">
@@ -57423,10 +57429,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" t="s" s="2">
@@ -57452,10 +57458,10 @@
         <v>151</v>
       </c>
       <c r="L525" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M525" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N525" s="2"/>
       <c r="O525" s="2"/>
@@ -57506,7 +57512,7 @@
         <v>73</v>
       </c>
       <c r="AF525" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AG525" t="s" s="2">
         <v>74</v>
@@ -57526,10 +57532,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" t="s" s="2">
@@ -57555,10 +57561,10 @@
         <v>80</v>
       </c>
       <c r="L526" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M526" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N526" s="2"/>
       <c r="O526" s="2"/>
@@ -57609,7 +57615,7 @@
         <v>73</v>
       </c>
       <c r="AF526" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AG526" t="s" s="2">
         <v>74</v>
@@ -57629,10 +57635,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" t="s" s="2">
@@ -57732,10 +57738,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" t="s" s="2">
@@ -57837,10 +57843,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" t="s" s="2">
@@ -57944,10 +57950,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" t="s" s="2">
@@ -57973,14 +57979,14 @@
         <v>84</v>
       </c>
       <c r="L530" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N530" s="2"/>
       <c r="O530" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P530" t="s" s="2">
         <v>73</v>
@@ -58029,7 +58035,7 @@
         <v>73</v>
       </c>
       <c r="AF530" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AG530" t="s" s="2">
         <v>74</v>
@@ -58049,10 +58055,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" t="s" s="2">
@@ -58078,10 +58084,10 @@
         <v>80</v>
       </c>
       <c r="L531" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M531" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N531" s="2"/>
       <c r="O531" s="2"/>
@@ -58132,7 +58138,7 @@
         <v>73</v>
       </c>
       <c r="AF531" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AG531" t="s" s="2">
         <v>74</v>
@@ -58152,10 +58158,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" t="s" s="2">
@@ -58255,10 +58261,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" t="s" s="2">
@@ -58360,10 +58366,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" t="s" s="2">
@@ -58467,10 +58473,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" t="s" s="2">
@@ -58496,14 +58502,14 @@
         <v>155</v>
       </c>
       <c r="L535" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M535" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N535" s="2"/>
       <c r="O535" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="P535" t="s" s="2">
         <v>73</v>
@@ -58552,7 +58558,7 @@
         <v>73</v>
       </c>
       <c r="AF535" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG535" t="s" s="2">
         <v>74</v>
@@ -58572,10 +58578,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" t="s" s="2">
@@ -58601,10 +58607,10 @@
         <v>155</v>
       </c>
       <c r="L536" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N536" s="2"/>
       <c r="O536" s="2"/>
@@ -58655,7 +58661,7 @@
         <v>73</v>
       </c>
       <c r="AF536" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AG536" t="s" s="2">
         <v>74</v>
@@ -58675,10 +58681,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" t="s" s="2">
@@ -58704,10 +58710,10 @@
         <v>155</v>
       </c>
       <c r="L537" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N537" s="2"/>
       <c r="O537" s="2"/>
@@ -58758,7 +58764,7 @@
         <v>73</v>
       </c>
       <c r="AF537" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AG537" t="s" s="2">
         <v>74</v>
@@ -58778,10 +58784,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" t="s" s="2">
@@ -58807,10 +58813,10 @@
         <v>155</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N538" s="2"/>
       <c r="O538" s="2"/>
@@ -58861,7 +58867,7 @@
         <v>73</v>
       </c>
       <c r="AF538" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AG538" t="s" s="2">
         <v>74</v>
@@ -58881,10 +58887,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" t="s" s="2">
@@ -58910,10 +58916,10 @@
         <v>155</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N539" s="2"/>
       <c r="O539" s="2"/>
@@ -58964,7 +58970,7 @@
         <v>73</v>
       </c>
       <c r="AF539" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG539" t="s" s="2">
         <v>74</v>
@@ -58984,10 +58990,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" t="s" s="2">
@@ -59013,10 +59019,10 @@
         <v>155</v>
       </c>
       <c r="L540" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N540" s="2"/>
       <c r="O540" s="2"/>
@@ -59067,7 +59073,7 @@
         <v>73</v>
       </c>
       <c r="AF540" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG540" t="s" s="2">
         <v>74</v>
@@ -59087,10 +59093,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" t="s" s="2">
@@ -59116,10 +59122,10 @@
         <v>155</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N541" s="2"/>
       <c r="O541" s="2"/>
@@ -59170,7 +59176,7 @@
         <v>73</v>
       </c>
       <c r="AF541" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG541" t="s" s="2">
         <v>74</v>
@@ -59190,10 +59196,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" t="s" s="2">
@@ -59219,10 +59225,10 @@
         <v>155</v>
       </c>
       <c r="L542" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N542" s="2"/>
       <c r="O542" s="2"/>
@@ -59273,7 +59279,7 @@
         <v>73</v>
       </c>
       <c r="AF542" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AG542" t="s" s="2">
         <v>74</v>
@@ -59293,10 +59299,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" t="s" s="2">
@@ -59322,13 +59328,13 @@
         <v>84</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" t="s" s="2">
@@ -59342,7 +59348,7 @@
         <v>73</v>
       </c>
       <c r="T543" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="U543" t="s" s="2">
         <v>73</v>
@@ -59378,7 +59384,7 @@
         <v>73</v>
       </c>
       <c r="AF543" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AG543" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-KMEHRMS.xlsx
+++ b/StructureDefinition-KMEHRMS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:41:52+00:00</t>
+    <t>2023-03-07T20:58:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
